--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Introduction" sheetId="127" r:id="rId1"/>
     <sheet name="User Guidance" sheetId="126" r:id="rId2"/>
     <sheet name="Template" sheetId="125" r:id="rId3"/>
-    <sheet name="Lists" sheetId="41" r:id="rId4"/>
+    <sheet name="Lists" sheetId="41" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Template!$B$2:$G$206</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1053">
   <si>
     <t>Country</t>
   </si>
@@ -2691,9 +2691,6 @@
     <t>Solid manure from pigs, sows and piglets</t>
   </si>
   <si>
-    <t>Micronutrients</t>
-  </si>
-  <si>
     <r>
       <t>Harvest da</t>
     </r>
@@ -3478,6 +3475,12 @@
   </si>
   <si>
     <t>v2.0</t>
+  </si>
+  <si>
+    <t>Boric acid</t>
+  </si>
+  <si>
+    <t>Micro-/macronutrients</t>
   </si>
 </sst>
 </file>
@@ -6102,9 +6105,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6117,18 +6138,6 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6143,12 +6152,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="613">
@@ -8347,25 +8350,25 @@
     </row>
     <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="159"/>
-      <c r="B5" s="264"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
+      <c r="B5" s="261"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
-      <c r="B6" s="274" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="265"/>
+      <c r="B6" s="262" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
@@ -8382,14 +8385,14 @@
     </row>
     <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A8" s="154"/>
-      <c r="B8" s="266" t="s">
+      <c r="B8" s="264" t="s">
         <v>708</v>
       </c>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
@@ -8406,14 +8409,14 @@
     </row>
     <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="267" t="s">
+      <c r="B10" s="265" t="s">
         <v>772</v>
       </c>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="267"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="267"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="265"/>
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
@@ -8421,10 +8424,10 @@
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="267"/>
-      <c r="F11" s="267"/>
-      <c r="G11" s="267"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="265"/>
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
@@ -8434,12 +8437,12 @@
         <v>709</v>
       </c>
       <c r="C12" s="174"/>
-      <c r="D12" s="259" t="s">
+      <c r="D12" s="260" t="s">
         <v>710</v>
       </c>
-      <c r="E12" s="259"/>
-      <c r="F12" s="259"/>
-      <c r="G12" s="259"/>
+      <c r="E12" s="260"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="260"/>
       <c r="H12" s="156"/>
       <c r="I12" s="156"/>
     </row>
@@ -8449,12 +8452,12 @@
         <v>737</v>
       </c>
       <c r="C13" s="174"/>
-      <c r="D13" s="259" t="s">
+      <c r="D13" s="260" t="s">
         <v>739</v>
       </c>
-      <c r="E13" s="259"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="259"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
       <c r="H13" s="156"/>
       <c r="I13" s="156"/>
     </row>
@@ -8464,12 +8467,12 @@
         <v>738</v>
       </c>
       <c r="C14" s="174"/>
-      <c r="D14" s="259" t="s">
+      <c r="D14" s="260" t="s">
         <v>740</v>
       </c>
-      <c r="E14" s="259"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="259"/>
+      <c r="E14" s="260"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="260"/>
       <c r="H14" s="156"/>
       <c r="I14" s="156"/>
     </row>
@@ -8477,10 +8480,10 @@
       <c r="A15" s="154"/>
       <c r="B15" s="175"/>
       <c r="C15" s="174"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="259"/>
-      <c r="G15" s="259"/>
+      <c r="D15" s="260"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="260"/>
       <c r="H15" s="156"/>
       <c r="I15" s="156"/>
     </row>
@@ -8497,23 +8500,23 @@
     </row>
     <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A17" s="154"/>
-      <c r="B17" s="261" t="s">
+      <c r="B17" s="267" t="s">
         <v>711</v>
       </c>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="261"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="267"/>
+      <c r="E17" s="267"/>
+      <c r="F17" s="267"/>
+      <c r="G17" s="267"/>
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
     <row r="18" spans="1:9" s="160" customFormat="1">
       <c r="A18" s="159"/>
-      <c r="B18" s="262" t="s">
+      <c r="B18" s="268" t="s">
         <v>712</v>
       </c>
-      <c r="C18" s="262"/>
+      <c r="C18" s="268"/>
       <c r="D18" s="180" t="s">
         <v>713</v>
       </c>
@@ -8531,10 +8534,10 @@
     </row>
     <row r="19" spans="1:9" s="160" customFormat="1">
       <c r="A19" s="159"/>
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="269" t="s">
         <v>717</v>
       </c>
-      <c r="C19" s="263"/>
+      <c r="C19" s="269"/>
       <c r="D19" s="166" t="s">
         <v>718</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>781</v>
       </c>
       <c r="E20" s="167" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F20" s="168" t="s">
         <v>782</v>
@@ -8573,10 +8576,10 @@
     </row>
     <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
-      <c r="B21" s="260" t="s">
+      <c r="B21" s="266" t="s">
         <v>720</v>
       </c>
-      <c r="C21" s="260"/>
+      <c r="C21" s="266"/>
       <c r="D21" s="167" t="s">
         <v>721</v>
       </c>
@@ -8594,10 +8597,10 @@
     </row>
     <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
-      <c r="B22" s="260" t="s">
+      <c r="B22" s="266" t="s">
         <v>724</v>
       </c>
-      <c r="C22" s="260"/>
+      <c r="C22" s="266"/>
       <c r="D22" s="167" t="s">
         <v>725</v>
       </c>
@@ -8711,12 +8714,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="B21:C21"/>
@@ -8725,6 +8722,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <phoneticPr fontId="83" type="noConversion"/>
   <hyperlinks>
@@ -8746,8 +8749,8 @@
   </sheetPr>
   <dimension ref="A1:Z245"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4:E4"/>
     </sheetView>
@@ -8779,12 +8782,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="90" customHeight="1">
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="270" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
       <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1" ht="15.95" customHeight="1">
@@ -8799,10 +8802,10 @@
       <c r="C4" s="196" t="s">
         <v>742</v>
       </c>
-      <c r="D4" s="269" t="s">
+      <c r="D4" s="271" t="s">
         <v>774</v>
       </c>
-      <c r="E4" s="269"/>
+      <c r="E4" s="271"/>
       <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1" ht="30.95" customHeight="1">
@@ -8810,10 +8813,10 @@
       <c r="C5" s="196" t="s">
         <v>743</v>
       </c>
-      <c r="D5" s="270" t="s">
+      <c r="D5" s="272" t="s">
         <v>773</v>
       </c>
-      <c r="E5" s="270"/>
+      <c r="E5" s="272"/>
       <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:6" ht="8.1" customHeight="1">
@@ -9651,7 +9654,7 @@
     <row r="63" spans="1:6" outlineLevel="1" collapsed="1">
       <c r="A63" s="153"/>
       <c r="C63" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D63" s="142"/>
       <c r="E63" s="143"/>
@@ -9660,10 +9663,10 @@
     <row r="64" spans="1:6" outlineLevel="1">
       <c r="A64" s="153"/>
       <c r="C64" s="19" t="s">
+        <v>809</v>
+      </c>
+      <c r="D64" s="25" t="s">
         <v>810</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>811</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>99</v>
@@ -9673,10 +9676,10 @@
     <row r="65" spans="1:6" outlineLevel="1">
       <c r="A65" s="153"/>
       <c r="C65" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>99</v>
@@ -9686,10 +9689,10 @@
     <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" s="153"/>
       <c r="C66" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>99</v>
@@ -9699,10 +9702,10 @@
     <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" s="153"/>
       <c r="C67" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>99</v>
@@ -9712,10 +9715,10 @@
     <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" s="153"/>
       <c r="C68" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>99</v>
@@ -9725,10 +9728,10 @@
     <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" s="153"/>
       <c r="C69" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>99</v>
@@ -9776,7 +9779,7 @@
         <v>247</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>22</v>
@@ -9816,7 +9819,7 @@
         <v>249</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>100</v>
@@ -9831,7 +9834,7 @@
         <v>250</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>100</v>
@@ -9846,7 +9849,7 @@
         <v>251</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>100</v>
@@ -9861,7 +9864,7 @@
         <v>252</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>100</v>
@@ -10167,7 +10170,7 @@
         <v>31</v>
       </c>
       <c r="E100" s="214" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F100" s="64"/>
     </row>
@@ -10250,7 +10253,7 @@
         <v>290</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D106" s="23" t="s">
         <v>22</v>
@@ -10355,7 +10358,7 @@
         <v>287</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D113" s="23" t="s">
         <v>22</v>
@@ -10401,7 +10404,7 @@
         <v>300</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D116" s="23" t="s">
         <v>22</v>
@@ -10416,7 +10419,7 @@
         <v>299</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D117" s="23" t="s">
         <v>22</v>
@@ -10431,7 +10434,7 @@
         <v>302</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>22</v>
@@ -10446,7 +10449,7 @@
         <v>298</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>22</v>
@@ -10461,7 +10464,7 @@
         <v>301</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D120" s="23" t="s">
         <v>22</v>
@@ -10476,7 +10479,7 @@
         <v>297</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D121" s="23" t="s">
         <v>22</v>
@@ -10491,7 +10494,7 @@
         <v>296</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D122" s="23" t="s">
         <v>22</v>
@@ -10995,7 +10998,7 @@
         <v>52</v>
       </c>
       <c r="E156" s="222" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F156" s="64"/>
     </row>
@@ -11308,7 +11311,7 @@
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>27</v>
@@ -11342,7 +11345,7 @@
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>27</v>
@@ -11415,7 +11418,7 @@
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>27</v>
@@ -11488,7 +11491,7 @@
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="134" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D191" s="139" t="s">
         <v>27</v>
@@ -11561,7 +11564,7 @@
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>27</v>
@@ -11635,7 +11638,7 @@
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="134" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>27</v>
@@ -11709,7 +11712,7 @@
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="134" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D203" s="139" t="s">
         <v>27</v>
@@ -11766,7 +11769,7 @@
       </c>
       <c r="B206" s="120"/>
       <c r="C206" s="122" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D206" s="123" t="s">
         <v>8</v>
@@ -11826,7 +11829,7 @@
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="26" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>142</v>
@@ -11847,7 +11850,7 @@
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="26" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>142</v>
@@ -12282,7 +12285,7 @@
     <row r="223" spans="1:26" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B223" s="199"/>
       <c r="C223" s="204" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D223" s="228" t="s">
         <v>8</v>
@@ -12345,7 +12348,7 @@
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>32</v>
@@ -12398,7 +12401,7 @@
         <v>27</v>
       </c>
       <c r="E229" s="223" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F229" s="64"/>
     </row>
@@ -12546,7 +12549,7 @@
     <row r="239" spans="1:26" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="B239" s="88"/>
       <c r="C239" s="124" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D239" s="125" t="s">
         <v>8</v>
@@ -12644,7 +12647,7 @@
       </c>
       <c r="B243" s="12"/>
       <c r="C243" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D243" s="86" t="s">
         <v>32</v>
@@ -12665,7 +12668,7 @@
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="26" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D244" s="86" t="s">
         <v>32</v>
@@ -12686,10 +12689,10 @@
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D245" s="86" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E245" s="223" t="s">
         <v>99</v>
@@ -12779,7 +12782,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$O$2:$O$107</xm:f>
+            <xm:f>Lists!$O$2:$O$108</xm:f>
           </x14:formula1>
           <xm:sqref>C173:C175</xm:sqref>
         </x14:dataValidation>
@@ -12800,7 +12803,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -12819,7 +12822,7 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1">
       <c r="A1" s="98" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C1" s="100" t="s">
         <v>236</v>
@@ -12838,14 +12841,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="78" customHeight="1">
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="270" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" ht="15.95" customHeight="1">
@@ -12859,34 +12862,34 @@
     </row>
     <row r="4" spans="1:8" ht="21">
       <c r="A4" s="153" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B4" s="188"/>
       <c r="C4" s="192" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D4" s="190" t="s">
         <v>660</v>
       </c>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
       <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8" ht="21">
       <c r="A5" s="153" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B5" s="189"/>
       <c r="C5" s="193" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D5" s="191" t="s">
         <v>661</v>
       </c>
-      <c r="E5" s="272"/>
-      <c r="F5" s="272"/>
-      <c r="G5" s="272"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="274"/>
       <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" ht="8.1" customHeight="1">
@@ -13016,7 +13019,7 @@
     <row r="14" spans="1:8" outlineLevel="1">
       <c r="A14" s="153"/>
       <c r="C14" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D14" s="142"/>
       <c r="E14" s="143"/>
@@ -13026,13 +13029,13 @@
     </row>
     <row r="15" spans="1:8" outlineLevel="1">
       <c r="A15" s="153" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>809</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>810</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>811</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>99</v>
@@ -13043,13 +13046,13 @@
     </row>
     <row r="16" spans="1:8" outlineLevel="1">
       <c r="A16" s="153" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>99</v>
@@ -13060,13 +13063,13 @@
     </row>
     <row r="17" spans="1:8" outlineLevel="1">
       <c r="A17" s="153" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>99</v>
@@ -13077,13 +13080,13 @@
     </row>
     <row r="18" spans="1:8" outlineLevel="1">
       <c r="A18" s="153" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>99</v>
@@ -13094,13 +13097,13 @@
     </row>
     <row r="19" spans="1:8" outlineLevel="1">
       <c r="A19" s="153" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>99</v>
@@ -13111,13 +13114,13 @@
     </row>
     <row r="20" spans="1:8" outlineLevel="1">
       <c r="A20" s="153" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>99</v>
@@ -13147,7 +13150,7 @@
     </row>
     <row r="22" spans="1:8" outlineLevel="1">
       <c r="C22" s="32" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D22" s="142"/>
       <c r="E22" s="143"/>
@@ -13157,17 +13160,17 @@
     </row>
     <row r="23" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A23" s="254" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -13175,17 +13178,17 @@
     </row>
     <row r="24" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A24" s="254" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -13213,7 +13216,7 @@
         <v>247</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>22</v>
@@ -13227,11 +13230,11 @@
     </row>
     <row r="27" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A27" s="252" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>28</v>
@@ -13245,14 +13248,14 @@
     </row>
     <row r="28" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A28" s="252" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>980</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>981</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>99</v>
@@ -13264,7 +13267,7 @@
     <row r="29" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="B29" s="12"/>
       <c r="C29" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="22"/>
@@ -13274,17 +13277,17 @@
     </row>
     <row r="30" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A30" s="252" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="3"/>
@@ -13292,17 +13295,17 @@
     </row>
     <row r="31" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A31" s="252" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="3"/>
@@ -13340,7 +13343,7 @@
         <v>249</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>100</v>
@@ -13357,7 +13360,7 @@
         <v>250</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>100</v>
@@ -13374,7 +13377,7 @@
         <v>251</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>100</v>
@@ -13391,7 +13394,7 @@
         <v>252</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>100</v>
@@ -13456,11 +13459,11 @@
     </row>
     <row r="41" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A41" s="252" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="26" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>28</v>
@@ -13756,7 +13759,7 @@
     </row>
     <row r="59" spans="1:8" outlineLevel="1">
       <c r="C59" s="41" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="108"/>
@@ -13770,7 +13773,7 @@
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="46" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>31</v>
@@ -13785,7 +13788,7 @@
     <row r="61" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="B61" s="12"/>
       <c r="C61" s="41" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="108"/>
@@ -13795,11 +13798,11 @@
     </row>
     <row r="62" spans="1:8" s="252" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A62" s="252" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="46" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>31</v>
@@ -13813,11 +13816,11 @@
     </row>
     <row r="63" spans="1:8" s="252" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A63" s="252" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="46" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>31</v>
@@ -13831,11 +13834,11 @@
     </row>
     <row r="64" spans="1:8" s="252" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A64" s="252" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="46" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>31</v>
@@ -13941,7 +13944,7 @@
         <v>290</v>
       </c>
       <c r="C70" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>22</v>
@@ -14060,7 +14063,7 @@
         <v>287</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>22</v>
@@ -14113,7 +14116,7 @@
         <v>300</v>
       </c>
       <c r="C80" s="238" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D80" s="39" t="s">
         <v>22</v>
@@ -14130,7 +14133,7 @@
         <v>299</v>
       </c>
       <c r="C81" s="238" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>22</v>
@@ -14147,7 +14150,7 @@
         <v>302</v>
       </c>
       <c r="C82" s="46" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>22</v>
@@ -14164,7 +14167,7 @@
         <v>298</v>
       </c>
       <c r="C83" s="238" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>22</v>
@@ -14181,7 +14184,7 @@
         <v>301</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D84" s="39" t="s">
         <v>22</v>
@@ -14198,7 +14201,7 @@
         <v>297</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D85" s="39" t="s">
         <v>22</v>
@@ -14215,7 +14218,7 @@
         <v>296</v>
       </c>
       <c r="C86" s="46" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D86" s="39" t="s">
         <v>22</v>
@@ -14334,7 +14337,7 @@
     <row r="93" spans="1:8" ht="21">
       <c r="B93" s="70"/>
       <c r="C93" s="71" t="s">
-        <v>804</v>
+        <v>1052</v>
       </c>
       <c r="D93" s="72" t="s">
         <v>8</v>
@@ -14454,14 +14457,14 @@
     </row>
     <row r="100" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A100" s="252" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="30" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>1006</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>1007</v>
       </c>
       <c r="E100" s="109" t="s">
         <v>99</v>
@@ -14472,11 +14475,11 @@
     </row>
     <row r="101" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A101" s="252" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="46" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D101" s="39" t="s">
         <v>22</v>
@@ -14490,11 +14493,11 @@
     </row>
     <row r="102" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A102" s="252" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="46" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D102" s="39" t="s">
         <v>22</v>
@@ -14508,11 +14511,11 @@
     </row>
     <row r="103" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A103" s="252" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="46" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D103" s="39" t="s">
         <v>22</v>
@@ -14527,7 +14530,7 @@
     <row r="104" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="B104" s="12"/>
       <c r="C104" s="30" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="109"/>
@@ -14537,11 +14540,11 @@
     </row>
     <row r="105" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A105" s="252" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="46" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>27</v>
@@ -14555,11 +14558,11 @@
     </row>
     <row r="106" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A106" s="252" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="46" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>27</v>
@@ -14573,11 +14576,11 @@
     </row>
     <row r="107" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A107" s="252" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="46" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>27</v>
@@ -14591,11 +14594,11 @@
     </row>
     <row r="108" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A108" s="252" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="46" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>27</v>
@@ -14609,11 +14612,11 @@
     </row>
     <row r="109" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A109" s="252" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="46" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>27</v>
@@ -14627,11 +14630,11 @@
     </row>
     <row r="110" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A110" s="252" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="46" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>27</v>
@@ -14698,7 +14701,7 @@
     </row>
     <row r="114" spans="1:8" outlineLevel="1">
       <c r="A114" s="250" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C114" s="236" t="s">
         <v>795</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="116" spans="1:8" outlineLevel="1">
       <c r="A116" s="250" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C116" s="236" t="s">
         <v>797</v>
@@ -15387,7 +15390,7 @@
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>27</v>
@@ -15429,7 +15432,7 @@
       </c>
       <c r="B158" s="12"/>
       <c r="C158" s="29" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>27</v>
@@ -15514,7 +15517,7 @@
       </c>
       <c r="B162" s="12"/>
       <c r="C162" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>27</v>
@@ -15599,7 +15602,7 @@
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="134" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D166" s="139" t="s">
         <v>27</v>
@@ -15684,7 +15687,7 @@
       </c>
       <c r="B170" s="12"/>
       <c r="C170" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D170" s="12" t="s">
         <v>27</v>
@@ -15770,7 +15773,7 @@
       </c>
       <c r="B174" s="12"/>
       <c r="C174" s="134" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>27</v>
@@ -15856,7 +15859,7 @@
       </c>
       <c r="B178" s="12"/>
       <c r="C178" s="134" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D178" s="139" t="s">
         <v>27</v>
@@ -15919,7 +15922,7 @@
       </c>
       <c r="B181" s="117"/>
       <c r="C181" s="117" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D181" s="118" t="s">
         <v>8</v>
@@ -15937,11 +15940,11 @@
     </row>
     <row r="182" spans="1:28" s="253" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A182" s="253" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B182" s="12"/>
       <c r="C182" s="134" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D182" s="139" t="s">
         <v>27</v>
@@ -15962,7 +15965,7 @@
       <c r="A183" s="11"/>
       <c r="B183" s="120"/>
       <c r="C183" s="122" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D183" s="123" t="s">
         <v>8</v>
@@ -16036,7 +16039,7 @@
       </c>
       <c r="B186" s="12"/>
       <c r="C186" s="26" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>142</v>
@@ -16059,7 +16062,7 @@
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="26" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>142</v>
@@ -16524,7 +16527,7 @@
     <row r="200" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B200" s="197"/>
       <c r="C200" s="204" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D200" s="228" t="s">
         <v>8</v>
@@ -16547,7 +16550,7 @@
     </row>
     <row r="201" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A201" s="252" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B201" s="12"/>
       <c r="C201" s="26" t="s">
@@ -16570,7 +16573,7 @@
     </row>
     <row r="202" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A202" s="252" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B202" s="12"/>
       <c r="C202" s="26" t="s">
@@ -16593,7 +16596,7 @@
     </row>
     <row r="203" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A203" s="252" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="26" t="s">
@@ -16763,11 +16766,11 @@
     </row>
     <row r="212" spans="1:28" outlineLevel="1">
       <c r="A212" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="26" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>90</v>
@@ -16781,11 +16784,11 @@
     </row>
     <row r="213" spans="1:28" outlineLevel="1">
       <c r="A213" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B213" s="7"/>
       <c r="C213" s="26" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>90</v>
@@ -16800,7 +16803,7 @@
     <row r="214" spans="1:28" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="B214" s="88"/>
       <c r="C214" s="124" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D214" s="125" t="s">
         <v>8</v>
@@ -16837,7 +16840,7 @@
     </row>
     <row r="215" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A215" s="87" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B215" s="12"/>
       <c r="C215" s="26" t="s">
@@ -16860,7 +16863,7 @@
     </row>
     <row r="216" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A216" s="87" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B216" s="12"/>
       <c r="C216" s="150" t="s">
@@ -16883,7 +16886,7 @@
     </row>
     <row r="217" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A217" s="87" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B217" s="12"/>
       <c r="C217" s="150" t="s">
@@ -16906,11 +16909,11 @@
     </row>
     <row r="218" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A218" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B218" s="12"/>
       <c r="C218" s="26" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D218" s="86" t="s">
         <v>27</v>
@@ -16929,7 +16932,7 @@
     </row>
     <row r="219" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A219" s="11" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="150" t="s">
@@ -16952,11 +16955,11 @@
     </row>
     <row r="220" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A220" s="11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B220" s="12"/>
       <c r="C220" s="150" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D220" s="86" t="s">
         <v>22</v>
@@ -16975,11 +16978,11 @@
     </row>
     <row r="221" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A221" s="11" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B221" s="12"/>
       <c r="C221" s="150" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D221" s="86" t="s">
         <v>22</v>
@@ -16998,11 +17001,11 @@
     </row>
     <row r="222" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A222" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="150" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D222" s="86" t="s">
         <v>22</v>
@@ -17021,11 +17024,11 @@
     </row>
     <row r="223" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A223" s="253" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B223" s="12"/>
       <c r="C223" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D223" s="86" t="s">
         <v>32</v>
@@ -17044,11 +17047,11 @@
     </row>
     <row r="224" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A224" s="253" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="26" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D224" s="86" t="s">
         <v>32</v>
@@ -17067,14 +17070,14 @@
     </row>
     <row r="225" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A225" s="253" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D225" s="86" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E225" s="111" t="s">
         <v>99</v>
@@ -17184,12 +17187,6 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$O$2:$O$107</xm:f>
-          </x14:formula1>
-          <xm:sqref>C148:C150</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Lists!$M$2:$M$141</xm:f>
           </x14:formula1>
           <xm:sqref>C134:C136</xm:sqref>
@@ -17218,6 +17215,12 @@
           </x14:formula1>
           <xm:sqref>E31</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lists!$O$2:$O$108</xm:f>
+          </x14:formula1>
+          <xm:sqref>C148:C150</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -17232,9 +17235,9 @@
   <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17289,26 +17292,26 @@
         <v>786</v>
       </c>
       <c r="P1" s="235" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="Q1" s="235" t="s">
+        <v>942</v>
+      </c>
+      <c r="R1" s="235" t="s">
         <v>943</v>
       </c>
-      <c r="R1" s="235" t="s">
+      <c r="S1" s="235" t="s">
         <v>944</v>
-      </c>
-      <c r="S1" s="235" t="s">
-        <v>945</v>
       </c>
       <c r="T1" s="235" t="str">
         <f>Template!E23</f>
         <v>&lt;select climate zone 1&gt;</v>
       </c>
       <c r="U1" s="235" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="V1" s="235" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -17358,25 +17361,25 @@
         <v>369</v>
       </c>
       <c r="P2" s="258" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q2" s="258" t="s">
         <v>975</v>
       </c>
-      <c r="Q2" s="258" t="s">
-        <v>976</v>
-      </c>
       <c r="R2" s="258" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="S2" s="258" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="T2" s="258" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="V2" s="258" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -17390,7 +17393,7 @@
         <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>168</v>
@@ -17420,32 +17423,32 @@
         <v>371</v>
       </c>
       <c r="N3" s="256" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="O3" s="256" t="s">
         <v>574</v>
       </c>
       <c r="P3" s="258" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>951</v>
       </c>
       <c r="T3" s="1" t="str">
         <f>IF(T$1=P$3,Q3,IF(T$1=P$4,R3,IF(T$1=P$5,S3,"")))</f>
         <v/>
       </c>
       <c r="U3" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="V3" s="258" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" ht="27" thickBot="1">
@@ -17494,24 +17497,24 @@
       <c r="O4" s="256" t="s">
         <v>575</v>
       </c>
-      <c r="P4" s="273" t="s">
-        <v>947</v>
+      <c r="P4" s="259" t="s">
+        <v>946</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>954</v>
       </c>
       <c r="T4" s="258" t="str">
         <f t="shared" ref="T4:T17" si="0">IF(T$1=P$3,Q4,IF(T$1=P$4,R4,IF(T$1=P$5,S4,"")))</f>
         <v/>
       </c>
       <c r="U4" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="27" thickBot="1">
@@ -17522,7 +17525,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>180</v>
@@ -17555,22 +17558,22 @@
         <v>373</v>
       </c>
       <c r="N5" s="256" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="O5" s="256" t="s">
         <v>576</v>
       </c>
-      <c r="P5" s="273" t="s">
-        <v>948</v>
+      <c r="P5" s="259" t="s">
+        <v>947</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="T5" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17591,7 +17594,7 @@
         <v>187</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>188</v>
@@ -17612,19 +17615,19 @@
         <v>374</v>
       </c>
       <c r="N6" s="256" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O6" s="256" t="s">
         <v>577</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="T6" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17642,13 +17645,13 @@
         <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>192</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I7" s="258" t="s">
         <v>193</v>
@@ -17669,10 +17672,10 @@
         <v>578</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>962</v>
       </c>
       <c r="T7" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17690,7 +17693,7 @@
         <v>196</v>
       </c>
       <c r="I8" s="257" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>60</v>
@@ -17705,13 +17708,13 @@
         <v>492</v>
       </c>
       <c r="O8" s="256" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="T8" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17726,7 +17729,7 @@
         <v>199</v>
       </c>
       <c r="I9" s="257" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>61</v>
@@ -17735,7 +17738,7 @@
         <v>361</v>
       </c>
       <c r="M9" s="256" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="N9" s="256" t="s">
         <v>493</v>
@@ -17744,10 +17747,10 @@
         <v>579</v>
       </c>
       <c r="R9" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="T9" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17780,7 +17783,7 @@
         <v>580</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="T10" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17795,7 +17798,7 @@
         <v>205</v>
       </c>
       <c r="I11" s="257" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>63</v>
@@ -17813,7 +17816,7 @@
         <v>581</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="T11" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17822,19 +17825,19 @@
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="D12" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>207</v>
       </c>
       <c r="I12" s="257" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M12" s="256" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="N12" s="256" t="s">
         <v>496</v>
@@ -17843,7 +17846,7 @@
         <v>582</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="T12" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17855,7 +17858,7 @@
         <v>208</v>
       </c>
       <c r="I13" s="257" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>65</v>
@@ -17870,7 +17873,7 @@
         <v>583</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="T13" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17879,7 +17882,7 @@
     </row>
     <row r="14" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="G14" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I14" s="258" t="s">
         <v>200</v>
@@ -17897,7 +17900,7 @@
         <v>584</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="T14" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17915,13 +17918,13 @@
         <v>381</v>
       </c>
       <c r="N15" s="256" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="O15" s="256" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T15" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17936,7 +17939,7 @@
         <v>64</v>
       </c>
       <c r="M16" s="256" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="N16" s="256" t="s">
         <v>499</v>
@@ -17945,7 +17948,7 @@
         <v>650</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="T16" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17954,7 +17957,7 @@
     </row>
     <row r="17" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I17" s="257" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>69</v>
@@ -17966,10 +17969,10 @@
         <v>500</v>
       </c>
       <c r="O17" s="256" t="s">
-        <v>585</v>
+        <v>1051</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="T17" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17978,7 +17981,7 @@
     </row>
     <row r="18" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I18" s="257" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>70</v>
@@ -17990,29 +17993,29 @@
         <v>501</v>
       </c>
       <c r="O18" s="256" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="9:20" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I19" s="257" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="M19" s="256" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="N19" s="256" t="s">
         <v>502</v>
       </c>
       <c r="O19" s="256" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I20" s="257" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>71</v>
@@ -18024,12 +18027,12 @@
         <v>503</v>
       </c>
       <c r="O20" s="256" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I21" s="257" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>72</v>
@@ -18041,12 +18044,12 @@
         <v>537</v>
       </c>
       <c r="O21" s="256" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I22" s="257" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>74</v>
@@ -18058,7 +18061,7 @@
         <v>504</v>
       </c>
       <c r="O22" s="256" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18075,12 +18078,12 @@
         <v>505</v>
       </c>
       <c r="O23" s="256" t="s">
-        <v>651</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I24" s="257" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>77</v>
@@ -18089,10 +18092,10 @@
         <v>388</v>
       </c>
       <c r="N24" s="256" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O24" s="256" t="s">
-        <v>907</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18109,7 +18112,7 @@
         <v>506</v>
       </c>
       <c r="O25" s="256" t="s">
-        <v>591</v>
+        <v>906</v>
       </c>
     </row>
     <row r="26" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18126,7 +18129,7 @@
         <v>507</v>
       </c>
       <c r="O26" s="256" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18143,12 +18146,12 @@
         <v>508</v>
       </c>
       <c r="O27" s="256" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I28" s="257" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>81</v>
@@ -18174,27 +18177,27 @@
         <v>393</v>
       </c>
       <c r="N29" s="256" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O29" s="256" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I30" s="257" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="M30" s="256" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N30" s="256" t="s">
         <v>510</v>
       </c>
       <c r="O30" s="256" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18211,10 +18214,10 @@
         <v>511</v>
       </c>
       <c r="O31" s="256" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="32" spans="9:20" s="1" customFormat="1" ht="27" thickBot="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I32" s="258" t="s">
         <v>213</v>
       </c>
@@ -18225,13 +18228,13 @@
         <v>395</v>
       </c>
       <c r="N32" s="256" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="O32" s="256" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="33" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I33" s="258" t="s">
         <v>214</v>
       </c>
@@ -18245,7 +18248,7 @@
         <v>512</v>
       </c>
       <c r="O33" s="256" t="s">
-        <v>908</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18262,10 +18265,10 @@
         <v>513</v>
       </c>
       <c r="O34" s="256" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="35" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I35" s="258" t="s">
         <v>233</v>
       </c>
@@ -18279,10 +18282,10 @@
         <v>514</v>
       </c>
       <c r="O35" s="256" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="36" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="36" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I36" s="258" t="s">
         <v>216</v>
       </c>
@@ -18296,7 +18299,7 @@
         <v>515</v>
       </c>
       <c r="O36" s="256" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18307,13 +18310,13 @@
         <v>86</v>
       </c>
       <c r="M37" s="256" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N37" s="256" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O37" s="256" t="s">
-        <v>909</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18330,7 +18333,7 @@
         <v>516</v>
       </c>
       <c r="O38" s="256" t="s">
-        <v>599</v>
+        <v>908</v>
       </c>
     </row>
     <row r="39" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18347,7 +18350,7 @@
         <v>517</v>
       </c>
       <c r="O39" s="256" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="40" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18361,7 +18364,7 @@
         <v>518</v>
       </c>
       <c r="O40" s="256" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18369,13 +18372,13 @@
         <v>221</v>
       </c>
       <c r="M41" s="256" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="N41" s="256" t="s">
         <v>519</v>
       </c>
       <c r="O41" s="256" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18389,7 +18392,7 @@
         <v>520</v>
       </c>
       <c r="O42" s="256" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18403,10 +18406,10 @@
         <v>521</v>
       </c>
       <c r="O43" s="256" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="44" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="44" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I44" s="258" t="s">
         <v>228</v>
       </c>
@@ -18417,10 +18420,10 @@
         <v>522</v>
       </c>
       <c r="O44" s="256" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="45" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="45" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I45" s="258" t="s">
         <v>229</v>
       </c>
@@ -18431,7 +18434,7 @@
         <v>523</v>
       </c>
       <c r="O45" s="256" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="46" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18445,7 +18448,7 @@
         <v>524</v>
       </c>
       <c r="O46" s="256" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18459,7 +18462,7 @@
         <v>525</v>
       </c>
       <c r="O47" s="256" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18473,7 +18476,7 @@
         <v>526</v>
       </c>
       <c r="O48" s="256" t="s">
-        <v>910</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18487,7 +18490,7 @@
         <v>527</v>
       </c>
       <c r="O49" s="256" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="50" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18501,7 +18504,7 @@
         <v>528</v>
       </c>
       <c r="O50" s="256" t="s">
-        <v>609</v>
+        <v>910</v>
       </c>
     </row>
     <row r="51" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18512,7 +18515,7 @@
         <v>529</v>
       </c>
       <c r="O51" s="256" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="52" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18520,10 +18523,10 @@
         <v>413</v>
       </c>
       <c r="N52" s="256" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="O52" s="256" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="53" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
@@ -18534,7 +18537,7 @@
         <v>573</v>
       </c>
       <c r="O53" s="256" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="54" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18545,29 +18548,29 @@
         <v>530</v>
       </c>
       <c r="O54" s="256" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="55" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M55" s="256" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="N55" s="256" t="s">
         <v>531</v>
       </c>
       <c r="O55" s="256" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="56" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M56" s="256" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="N56" s="256" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O56" s="256" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="57" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18578,7 +18581,7 @@
         <v>532</v>
       </c>
       <c r="O57" s="256" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="58" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18589,7 +18592,7 @@
         <v>533</v>
       </c>
       <c r="O58" s="256" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="59" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18600,7 +18603,7 @@
         <v>534</v>
       </c>
       <c r="O59" s="256" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="60" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18611,7 +18614,7 @@
         <v>535</v>
       </c>
       <c r="O60" s="256" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="61" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18622,7 +18625,7 @@
         <v>536</v>
       </c>
       <c r="O61" s="256" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18633,18 +18636,18 @@
         <v>538</v>
       </c>
       <c r="O62" s="256" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="63" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="63" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M63" s="256" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="N63" s="256" t="s">
         <v>539</v>
       </c>
       <c r="O63" s="256" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
     </row>
     <row r="64" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -18655,29 +18658,29 @@
         <v>540</v>
       </c>
       <c r="O64" s="256" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="65" spans="13:20" s="1" customFormat="1" ht="27" thickBot="1">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="65" spans="13:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M65" s="256" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="N65" s="256" t="s">
         <v>541</v>
       </c>
       <c r="O65" s="256" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="66" spans="13:20" s="1" customFormat="1" ht="15.75" thickBot="1">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="66" spans="13:20" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M66" s="256" t="s">
         <v>423</v>
       </c>
       <c r="N66" s="256" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O66" s="256" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="67" spans="13:20" ht="15.75" thickBot="1">
@@ -18685,10 +18688,10 @@
         <v>424</v>
       </c>
       <c r="N67" s="256" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O67" s="256" t="s">
-        <v>623</v>
+        <v>912</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -18696,7 +18699,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="13:20" ht="27" thickBot="1">
+    <row r="68" spans="13:20" ht="15.75" thickBot="1">
       <c r="M68" s="256" t="s">
         <v>425</v>
       </c>
@@ -18704,29 +18707,29 @@
         <v>542</v>
       </c>
       <c r="O68" s="256" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="69" spans="13:20" ht="15.75" thickBot="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="69" spans="13:20" ht="27" thickBot="1">
       <c r="M69" s="256" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="N69" s="256" t="s">
         <v>543</v>
       </c>
       <c r="O69" s="256" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="70" spans="13:20" ht="15.75" thickBot="1">
       <c r="M70" s="256" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="N70" s="256" t="s">
         <v>544</v>
       </c>
       <c r="O70" s="256" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="71" spans="13:20" ht="15.75" thickBot="1">
@@ -18734,10 +18737,10 @@
         <v>426</v>
       </c>
       <c r="N71" s="256" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O71" s="256" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="72" spans="13:20" ht="15.75" thickBot="1">
@@ -18748,7 +18751,7 @@
         <v>545</v>
       </c>
       <c r="O72" s="256" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
     </row>
     <row r="73" spans="13:20" ht="27" thickBot="1">
@@ -18759,7 +18762,7 @@
         <v>546</v>
       </c>
       <c r="O73" s="256" t="s">
-        <v>628</v>
+        <v>913</v>
       </c>
     </row>
     <row r="74" spans="13:20" ht="15.75" thickBot="1">
@@ -18770,18 +18773,18 @@
         <v>547</v>
       </c>
       <c r="O74" s="256" t="s">
-        <v>916</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75" spans="13:20" ht="15.75" thickBot="1">
       <c r="M75" s="256" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="N75" s="256" t="s">
         <v>548</v>
       </c>
       <c r="O75" s="256" t="s">
-        <v>629</v>
+        <v>915</v>
       </c>
     </row>
     <row r="76" spans="13:20" ht="15.75" thickBot="1">
@@ -18792,7 +18795,7 @@
         <v>549</v>
       </c>
       <c r="O76" s="256" t="s">
-        <v>917</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77" spans="13:20" ht="15.75" thickBot="1">
@@ -18803,7 +18806,7 @@
         <v>550</v>
       </c>
       <c r="O77" s="256" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="78" spans="13:20" ht="15.75" thickBot="1">
@@ -18814,7 +18817,7 @@
         <v>551</v>
       </c>
       <c r="O78" s="256" t="s">
-        <v>630</v>
+        <v>917</v>
       </c>
     </row>
     <row r="79" spans="13:20" ht="27" thickBot="1">
@@ -18825,7 +18828,7 @@
         <v>552</v>
       </c>
       <c r="O79" s="256" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="80" spans="13:20" ht="15.75" thickBot="1">
@@ -18833,10 +18836,10 @@
         <v>434</v>
       </c>
       <c r="N80" s="256" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O80" s="256" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="81" spans="13:15" ht="15.75" thickBot="1">
@@ -18847,7 +18850,7 @@
         <v>553</v>
       </c>
       <c r="O81" s="256" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
     </row>
     <row r="82" spans="13:15" ht="15.75" thickBot="1">
@@ -18858,7 +18861,7 @@
         <v>554</v>
       </c>
       <c r="O82" s="256" t="s">
-        <v>919</v>
+        <v>655</v>
       </c>
     </row>
     <row r="83" spans="13:15" ht="15.75" thickBot="1">
@@ -18866,10 +18869,10 @@
         <v>437</v>
       </c>
       <c r="N83" s="256" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O83" s="256" t="s">
-        <v>633</v>
+        <v>918</v>
       </c>
     </row>
     <row r="84" spans="13:15" ht="15.75" thickBot="1">
@@ -18880,7 +18883,7 @@
         <v>555</v>
       </c>
       <c r="O84" s="256" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="85" spans="13:15" ht="15.75" thickBot="1">
@@ -18891,7 +18894,7 @@
         <v>556</v>
       </c>
       <c r="O85" s="256" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="86" spans="13:15" ht="15.75" thickBot="1">
@@ -18902,7 +18905,7 @@
         <v>557</v>
       </c>
       <c r="O86" s="256" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="87" spans="13:15" ht="15.75" thickBot="1">
@@ -18913,7 +18916,7 @@
         <v>558</v>
       </c>
       <c r="O87" s="256" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="88" spans="13:15" ht="15.75" thickBot="1">
@@ -18924,7 +18927,7 @@
         <v>559</v>
       </c>
       <c r="O88" s="256" t="s">
-        <v>921</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="13:15" ht="15.75" thickBot="1">
@@ -18943,10 +18946,10 @@
         <v>444</v>
       </c>
       <c r="N90" s="256" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O90" s="256" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="91" spans="13:15" ht="15.75" thickBot="1">
@@ -18957,7 +18960,7 @@
         <v>561</v>
       </c>
       <c r="O91" s="256" t="s">
-        <v>638</v>
+        <v>914</v>
       </c>
     </row>
     <row r="92" spans="13:15" ht="15.75" thickBot="1">
@@ -18968,18 +18971,18 @@
         <v>562</v>
       </c>
       <c r="O92" s="256" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" spans="13:15" ht="15.75" thickBot="1">
       <c r="M93" s="256" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N93" s="256" t="s">
         <v>563</v>
       </c>
       <c r="O93" s="256" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="94" spans="13:15" ht="15.75" thickBot="1">
@@ -18990,7 +18993,7 @@
         <v>564</v>
       </c>
       <c r="O94" s="256" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="13:15" ht="15.75" thickBot="1">
@@ -19001,7 +19004,7 @@
         <v>565</v>
       </c>
       <c r="O95" s="256" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="96" spans="13:15" ht="15.75" thickBot="1">
@@ -19012,7 +19015,7 @@
         <v>566</v>
       </c>
       <c r="O96" s="256" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
     </row>
     <row r="97" spans="13:15" ht="15.75" thickBot="1">
@@ -19023,7 +19026,7 @@
         <v>567</v>
       </c>
       <c r="O97" s="256" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="98" spans="13:15" ht="15.75" thickBot="1">
@@ -19034,7 +19037,7 @@
         <v>568</v>
       </c>
       <c r="O98" s="256" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="99" spans="13:15" ht="15.75" thickBot="1">
@@ -19045,7 +19048,7 @@
         <v>569</v>
       </c>
       <c r="O99" s="256" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100" spans="13:15" ht="15.75" thickBot="1">
@@ -19056,7 +19059,7 @@
         <v>570</v>
       </c>
       <c r="O100" s="256" t="s">
-        <v>922</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" spans="13:15" ht="15.75" thickBot="1">
@@ -19067,7 +19070,7 @@
         <v>571</v>
       </c>
       <c r="O101" s="256" t="s">
-        <v>645</v>
+        <v>921</v>
       </c>
     </row>
     <row r="102" spans="13:15" ht="15.75" thickBot="1">
@@ -19078,7 +19081,7 @@
         <v>572</v>
       </c>
       <c r="O102" s="256" t="s">
-        <v>923</v>
+        <v>645</v>
       </c>
     </row>
     <row r="103" spans="13:15" ht="27" thickBot="1">
@@ -19089,7 +19092,7 @@
         <v>573</v>
       </c>
       <c r="O103" s="256" t="s">
-        <v>646</v>
+        <v>922</v>
       </c>
     </row>
     <row r="104" spans="13:15" ht="15.75" thickBot="1">
@@ -19097,7 +19100,7 @@
         <v>456</v>
       </c>
       <c r="O104" s="256" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="105" spans="13:15" ht="15.75" thickBot="1">
@@ -19105,7 +19108,7 @@
         <v>458</v>
       </c>
       <c r="O105" s="256" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="106" spans="13:15" ht="15.75" thickBot="1">
@@ -19113,30 +19116,33 @@
         <v>459</v>
       </c>
       <c r="O106" s="256" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="107" spans="13:15" ht="27" thickBot="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="107" spans="13:15" ht="15.75" thickBot="1">
       <c r="M107" s="256" t="s">
         <v>460</v>
       </c>
       <c r="O107" s="256" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="108" spans="13:15" ht="15.75" thickBot="1">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="108" spans="13:15" ht="27" thickBot="1">
       <c r="M108" s="256" t="s">
         <v>461</v>
       </c>
+      <c r="O108" s="256" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="109" spans="13:15" ht="15.75" thickBot="1">
       <c r="M109" s="256" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="110" spans="13:15" ht="15.75" thickBot="1">
       <c r="M110" s="256" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="111" spans="13:15" ht="15.75" thickBot="1">
@@ -19206,7 +19212,7 @@
     </row>
     <row r="124" spans="13:13" ht="15.75" thickBot="1">
       <c r="M124" s="256" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="125" spans="13:13" ht="15.75" thickBot="1">
@@ -19216,7 +19222,7 @@
     </row>
     <row r="126" spans="13:13" ht="15.75" thickBot="1">
       <c r="M126" s="256" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="127" spans="13:13" ht="15.75" thickBot="1">
@@ -19241,7 +19247,7 @@
     </row>
     <row r="131" spans="13:13" ht="15.75" thickBot="1">
       <c r="M131" s="256" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="132" spans="13:13" ht="15.75" thickBot="1">

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="1058">
   <si>
     <t>Country</t>
   </si>
@@ -3456,21 +3456,6 @@
     <t>Composting</t>
   </si>
   <si>
-    <t>total_eol_biowaste</t>
-  </si>
-  <si>
-    <t>ratio_eol_biowaste_incineration</t>
-  </si>
-  <si>
-    <t>ratio_eol_biowaste_anae_digestion</t>
-  </si>
-  <si>
-    <t>ratio_eol_biowaste_composting</t>
-  </si>
-  <si>
-    <t>ratio_eol_biowaste_other</t>
-  </si>
-  <si>
     <t>v2.0.0</t>
   </si>
   <si>
@@ -3481,6 +3466,36 @@
   </si>
   <si>
     <t>Micro-/macronutrients</t>
+  </si>
+  <si>
+    <t>total_biowaste</t>
+  </si>
+  <si>
+    <t>ratio_biowaste_incineration</t>
+  </si>
+  <si>
+    <t>ratio_biowaste_anae_digestion</t>
+  </si>
+  <si>
+    <t>ratio_biowaste_composting</t>
+  </si>
+  <si>
+    <t>ratio_biowaste_other</t>
+  </si>
+  <si>
+    <t>Snow summer dry extremely continental</t>
+  </si>
+  <si>
+    <t>Warm temperate winter dry cold summer</t>
+  </si>
+  <si>
+    <t>Snow winter dry hot summer</t>
+  </si>
+  <si>
+    <t>Snow winter dry warm summer</t>
+  </si>
+  <si>
+    <t>Snow winter dry cold summer</t>
   </si>
 </sst>
 </file>
@@ -6111,6 +6126,18 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="51" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6125,18 +6152,6 @@
     </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="51" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8350,25 +8365,25 @@
     </row>
     <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="159"/>
-      <c r="B5" s="261"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
-      <c r="G5" s="261"/>
+      <c r="B5" s="265"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
-      <c r="B6" s="262" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
+      <c r="B6" s="266" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="267"/>
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
@@ -8385,14 +8400,14 @@
     </row>
     <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A8" s="154"/>
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="268" t="s">
         <v>708</v>
       </c>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="268"/>
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
@@ -8409,14 +8424,14 @@
     </row>
     <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="265" t="s">
+      <c r="B10" s="269" t="s">
         <v>772</v>
       </c>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="265"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="269"/>
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
@@ -8424,10 +8439,10 @@
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
-      <c r="D11" s="265"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="265"/>
-      <c r="G11" s="265"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="269"/>
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
@@ -8500,23 +8515,23 @@
     </row>
     <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A17" s="154"/>
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="262" t="s">
         <v>711</v>
       </c>
-      <c r="C17" s="267"/>
-      <c r="D17" s="267"/>
-      <c r="E17" s="267"/>
-      <c r="F17" s="267"/>
-      <c r="G17" s="267"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
     <row r="18" spans="1:9" s="160" customFormat="1">
       <c r="A18" s="159"/>
-      <c r="B18" s="268" t="s">
+      <c r="B18" s="263" t="s">
         <v>712</v>
       </c>
-      <c r="C18" s="268"/>
+      <c r="C18" s="263"/>
       <c r="D18" s="180" t="s">
         <v>713</v>
       </c>
@@ -8534,10 +8549,10 @@
     </row>
     <row r="19" spans="1:9" s="160" customFormat="1">
       <c r="A19" s="159"/>
-      <c r="B19" s="269" t="s">
+      <c r="B19" s="264" t="s">
         <v>717</v>
       </c>
-      <c r="C19" s="269"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="166" t="s">
         <v>718</v>
       </c>
@@ -8576,10 +8591,10 @@
     </row>
     <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
-      <c r="B21" s="266" t="s">
+      <c r="B21" s="261" t="s">
         <v>720</v>
       </c>
-      <c r="C21" s="266"/>
+      <c r="C21" s="261"/>
       <c r="D21" s="167" t="s">
         <v>721</v>
       </c>
@@ -8597,10 +8612,10 @@
     </row>
     <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
-      <c r="B22" s="266" t="s">
+      <c r="B22" s="261" t="s">
         <v>724</v>
       </c>
-      <c r="C22" s="266"/>
+      <c r="C22" s="261"/>
       <c r="D22" s="167" t="s">
         <v>725</v>
       </c>
@@ -8714,6 +8729,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="B21:C21"/>
@@ -8722,12 +8743,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <phoneticPr fontId="83" type="noConversion"/>
   <hyperlinks>
@@ -12803,7 +12818,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -12822,7 +12837,7 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1">
       <c r="A1" s="98" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="C1" s="100" t="s">
         <v>236</v>
@@ -14337,7 +14352,7 @@
     <row r="93" spans="1:8" ht="21">
       <c r="B93" s="70"/>
       <c r="C93" s="71" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="D93" s="72" t="s">
         <v>8</v>
@@ -16909,7 +16924,7 @@
     </row>
     <row r="218" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A218" s="11" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B218" s="12"/>
       <c r="C218" s="26" t="s">
@@ -16932,7 +16947,7 @@
     </row>
     <row r="219" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A219" s="11" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="150" t="s">
@@ -16955,7 +16970,7 @@
     </row>
     <row r="220" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A220" s="11" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B220" s="12"/>
       <c r="C220" s="150" t="s">
@@ -16978,7 +16993,7 @@
     </row>
     <row r="221" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A221" s="11" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B221" s="12"/>
       <c r="C221" s="150" t="s">
@@ -17001,7 +17016,7 @@
     </row>
     <row r="222" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A222" s="11" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="150" t="s">
@@ -17199,7 +17214,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$T$2:$T$17</xm:f>
+            <xm:f>Lists!$T$2:$T$22</xm:f>
           </x14:formula1>
           <xm:sqref>E24</xm:sqref>
         </x14:dataValidation>
@@ -17234,10 +17249,10 @@
   </sheetPr>
   <dimension ref="A1:V141"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17510,7 +17525,7 @@
         <v>953</v>
       </c>
       <c r="T4" s="258" t="str">
-        <f t="shared" ref="T4:T17" si="0">IF(T$1=P$3,Q4,IF(T$1=P$4,R4,IF(T$1=P$5,S4,"")))</f>
+        <f t="shared" ref="T4:T22" si="0">IF(T$1=P$3,Q4,IF(T$1=P$4,R4,IF(T$1=P$5,S4,"")))</f>
         <v/>
       </c>
       <c r="U4" s="1" t="s">
@@ -17634,7 +17649,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="52.5" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -17671,11 +17686,14 @@
       <c r="O7" s="256" t="s">
         <v>578</v>
       </c>
+      <c r="Q7" s="259" t="s">
+        <v>1053</v>
+      </c>
       <c r="R7" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>961</v>
+      <c r="S7" s="258" t="s">
+        <v>973</v>
       </c>
       <c r="T7" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17713,8 +17731,8 @@
       <c r="R8" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>963</v>
+      <c r="S8" s="258" t="s">
+        <v>965</v>
       </c>
       <c r="T8" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17749,9 +17767,6 @@
       <c r="R9" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>965</v>
-      </c>
       <c r="T9" s="258" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -17782,8 +17797,8 @@
       <c r="O10" s="256" t="s">
         <v>580</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>966</v>
+      <c r="R10" s="258" t="s">
+        <v>961</v>
       </c>
       <c r="T10" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17815,8 +17830,8 @@
       <c r="O11" s="256" t="s">
         <v>581</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>967</v>
+      <c r="R11" s="258" t="s">
+        <v>963</v>
       </c>
       <c r="T11" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17845,8 +17860,8 @@
       <c r="O12" s="256" t="s">
         <v>582</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>968</v>
+      <c r="R12" s="258" t="s">
+        <v>1054</v>
       </c>
       <c r="T12" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17872,8 +17887,8 @@
       <c r="O13" s="256" t="s">
         <v>583</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>969</v>
+      <c r="R13" s="258" t="s">
+        <v>966</v>
       </c>
       <c r="T13" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17899,8 +17914,8 @@
       <c r="O14" s="256" t="s">
         <v>584</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>970</v>
+      <c r="R14" s="258" t="s">
+        <v>967</v>
       </c>
       <c r="T14" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17923,8 +17938,8 @@
       <c r="O15" s="256" t="s">
         <v>904</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>971</v>
+      <c r="R15" s="258" t="s">
+        <v>968</v>
       </c>
       <c r="T15" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17947,8 +17962,8 @@
       <c r="O16" s="256" t="s">
         <v>650</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>972</v>
+      <c r="R16" s="258" t="s">
+        <v>969</v>
       </c>
       <c r="T16" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17969,10 +17984,10 @@
         <v>500</v>
       </c>
       <c r="O17" s="256" t="s">
-        <v>1051</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>973</v>
+        <v>1046</v>
+      </c>
+      <c r="R17" s="258" t="s">
+        <v>970</v>
       </c>
       <c r="T17" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17995,6 +18010,13 @@
       <c r="O18" s="256" t="s">
         <v>585</v>
       </c>
+      <c r="R18" s="258" t="s">
+        <v>971</v>
+      </c>
+      <c r="T18" s="258" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="9:20" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I19" s="257" t="s">
@@ -18012,6 +18034,13 @@
       <c r="O19" s="256" t="s">
         <v>586</v>
       </c>
+      <c r="R19" s="258" t="s">
+        <v>1055</v>
+      </c>
+      <c r="T19" s="258" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I20" s="257" t="s">
@@ -18029,6 +18058,13 @@
       <c r="O20" s="256" t="s">
         <v>587</v>
       </c>
+      <c r="R20" s="258" t="s">
+        <v>1056</v>
+      </c>
+      <c r="T20" s="258" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I21" s="257" t="s">
@@ -18046,6 +18082,13 @@
       <c r="O21" s="256" t="s">
         <v>588</v>
       </c>
+      <c r="R21" s="258" t="s">
+        <v>1057</v>
+      </c>
+      <c r="T21" s="258" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I22" s="257" t="s">
@@ -18062,6 +18105,13 @@
       </c>
       <c r="O22" s="256" t="s">
         <v>589</v>
+      </c>
+      <c r="R22" s="258" t="s">
+        <v>972</v>
+      </c>
+      <c r="T22" s="258" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1005" windowWidth="24240" windowHeight="13680" tabRatio="463"/>
+    <workbookView xWindow="120" yWindow="1005" windowWidth="24240" windowHeight="13680" tabRatio="463" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="127" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="1060">
   <si>
     <t>Country</t>
   </si>
@@ -3300,12 +3300,6 @@
     <t>open ground</t>
   </si>
   <si>
-    <t>greenhouse, open ground</t>
-  </si>
-  <si>
-    <t>greenhouse, hydroponic system</t>
-  </si>
-  <si>
     <t>Lifetime of orchard</t>
   </si>
   <si>
@@ -3496,6 +3490,18 @@
   </si>
   <si>
     <t>Snow winter dry cold summer</t>
+  </si>
+  <si>
+    <t>greenhouse, open ground, heated</t>
+  </si>
+  <si>
+    <t>greenhouse, open ground, unheated</t>
+  </si>
+  <si>
+    <t>greenhouse, hydroponic system, unheated</t>
+  </si>
+  <si>
+    <t>greenhouse, hydroponic system, heated</t>
   </si>
 </sst>
 </file>
@@ -8303,7 +8309,7 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -8377,7 +8383,7 @@
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
       <c r="B6" s="266" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C6" s="267"/>
       <c r="D6" s="267"/>
@@ -12815,7 +12821,7 @@
   </sheetPr>
   <dimension ref="A1:AB225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
@@ -12837,7 +12843,7 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1">
       <c r="A1" s="98" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C1" s="100" t="s">
         <v>236</v>
@@ -13272,7 +13278,7 @@
       <c r="D28" s="20" t="s">
         <v>980</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="108" t="s">
         <v>99</v>
       </c>
       <c r="F28" s="21"/>
@@ -13474,11 +13480,11 @@
     </row>
     <row r="41" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A41" s="252" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="26" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>28</v>
@@ -13774,7 +13780,7 @@
     </row>
     <row r="59" spans="1:8" outlineLevel="1">
       <c r="C59" s="41" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="108"/>
@@ -13788,7 +13794,7 @@
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="46" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>31</v>
@@ -13803,7 +13809,7 @@
     <row r="61" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="B61" s="12"/>
       <c r="C61" s="41" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="108"/>
@@ -13813,11 +13819,11 @@
     </row>
     <row r="62" spans="1:8" s="252" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A62" s="252" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="46" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>31</v>
@@ -13831,11 +13837,11 @@
     </row>
     <row r="63" spans="1:8" s="252" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A63" s="252" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="46" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>31</v>
@@ -13849,11 +13855,11 @@
     </row>
     <row r="64" spans="1:8" s="252" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A64" s="252" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="46" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>31</v>
@@ -14352,7 +14358,7 @@
     <row r="93" spans="1:8" ht="21">
       <c r="B93" s="70"/>
       <c r="C93" s="71" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D93" s="72" t="s">
         <v>8</v>
@@ -14472,14 +14478,14 @@
     </row>
     <row r="100" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A100" s="252" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="30" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E100" s="109" t="s">
         <v>99</v>
@@ -14490,11 +14496,11 @@
     </row>
     <row r="101" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A101" s="252" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="46" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D101" s="39" t="s">
         <v>22</v>
@@ -14508,11 +14514,11 @@
     </row>
     <row r="102" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A102" s="252" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="46" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D102" s="39" t="s">
         <v>22</v>
@@ -14526,11 +14532,11 @@
     </row>
     <row r="103" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A103" s="252" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="46" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D103" s="39" t="s">
         <v>22</v>
@@ -14545,7 +14551,7 @@
     <row r="104" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="B104" s="12"/>
       <c r="C104" s="30" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="109"/>
@@ -14555,16 +14561,16 @@
     </row>
     <row r="105" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A105" s="252" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="46" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="109" t="s">
         <v>99</v>
       </c>
       <c r="F105" s="24"/>
@@ -14573,16 +14579,16 @@
     </row>
     <row r="106" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A106" s="252" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="46" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="109" t="s">
         <v>99</v>
       </c>
       <c r="F106" s="24"/>
@@ -14591,16 +14597,16 @@
     </row>
     <row r="107" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A107" s="252" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="46" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="E107" s="109" t="s">
         <v>99</v>
       </c>
       <c r="F107" s="24"/>
@@ -14609,16 +14615,16 @@
     </row>
     <row r="108" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A108" s="252" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="46" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="22" t="s">
+      <c r="E108" s="109" t="s">
         <v>99</v>
       </c>
       <c r="F108" s="24"/>
@@ -14627,16 +14633,16 @@
     </row>
     <row r="109" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A109" s="252" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="46" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="22" t="s">
+      <c r="E109" s="109" t="s">
         <v>99</v>
       </c>
       <c r="F109" s="24"/>
@@ -14645,16 +14651,16 @@
     </row>
     <row r="110" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A110" s="252" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="46" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E110" s="22" t="s">
+      <c r="E110" s="109" t="s">
         <v>99</v>
       </c>
       <c r="F110" s="24"/>
@@ -15405,7 +15411,7 @@
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>27</v>
@@ -15447,7 +15453,7 @@
       </c>
       <c r="B158" s="12"/>
       <c r="C158" s="29" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>27</v>
@@ -15532,7 +15538,7 @@
       </c>
       <c r="B162" s="12"/>
       <c r="C162" s="29" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>27</v>
@@ -15617,7 +15623,7 @@
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="134" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D166" s="139" t="s">
         <v>27</v>
@@ -15702,7 +15708,7 @@
       </c>
       <c r="B170" s="12"/>
       <c r="C170" s="29" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D170" s="12" t="s">
         <v>27</v>
@@ -15788,7 +15794,7 @@
       </c>
       <c r="B174" s="12"/>
       <c r="C174" s="134" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>27</v>
@@ -15874,7 +15880,7 @@
       </c>
       <c r="B178" s="12"/>
       <c r="C178" s="134" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D178" s="139" t="s">
         <v>27</v>
@@ -15937,7 +15943,7 @@
       </c>
       <c r="B181" s="117"/>
       <c r="C181" s="117" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D181" s="118" t="s">
         <v>8</v>
@@ -15955,11 +15961,11 @@
     </row>
     <row r="182" spans="1:28" s="253" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A182" s="253" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B182" s="12"/>
       <c r="C182" s="134" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D182" s="139" t="s">
         <v>27</v>
@@ -16781,11 +16787,11 @@
     </row>
     <row r="212" spans="1:28" outlineLevel="1">
       <c r="A212" s="4" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="26" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>90</v>
@@ -16799,11 +16805,11 @@
     </row>
     <row r="213" spans="1:28" outlineLevel="1">
       <c r="A213" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B213" s="7"/>
       <c r="C213" s="26" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>90</v>
@@ -16924,11 +16930,11 @@
     </row>
     <row r="218" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A218" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B218" s="12"/>
       <c r="C218" s="26" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D218" s="86" t="s">
         <v>27</v>
@@ -16947,7 +16953,7 @@
     </row>
     <row r="219" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A219" s="11" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="150" t="s">
@@ -16970,16 +16976,16 @@
     </row>
     <row r="220" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A220" s="11" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B220" s="12"/>
       <c r="C220" s="150" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D220" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E220" s="251" t="s">
+      <c r="E220" s="249" t="s">
         <v>99</v>
       </c>
       <c r="F220" s="51"/>
@@ -16993,11 +16999,11 @@
     </row>
     <row r="221" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A221" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B221" s="12"/>
       <c r="C221" s="150" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D221" s="86" t="s">
         <v>22</v>
@@ -17016,7 +17022,7 @@
     </row>
     <row r="222" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A222" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="150" t="s">
@@ -17220,7 +17226,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$U$2:$U$4</xm:f>
+            <xm:f>Lists!$U$2:$U$6</xm:f>
           </x14:formula1>
           <xm:sqref>E30</xm:sqref>
         </x14:dataValidation>
@@ -17249,10 +17255,10 @@
   </sheetPr>
   <dimension ref="A1:V141"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17460,7 +17466,7 @@
         <v/>
       </c>
       <c r="U3" s="1" t="s">
-        <v>992</v>
+        <v>1057</v>
       </c>
       <c r="V3" s="258" t="s">
         <v>990</v>
@@ -17528,8 +17534,8 @@
         <f t="shared" ref="T4:T22" si="0">IF(T$1=P$3,Q4,IF(T$1=P$4,R4,IF(T$1=P$5,S4,"")))</f>
         <v/>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>993</v>
+      <c r="U4" s="258" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="27" thickBot="1">
@@ -17594,6 +17600,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="U5" s="258" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="6" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="1" t="s">
@@ -17648,6 +17657,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="U6" s="258" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" ht="52.5" thickBot="1">
       <c r="A7" s="1" t="s">
@@ -17687,7 +17699,7 @@
         <v>578</v>
       </c>
       <c r="Q7" s="259" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>960</v>
@@ -17861,7 +17873,7 @@
         <v>582</v>
       </c>
       <c r="R12" s="258" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="T12" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17984,7 +17996,7 @@
         <v>500</v>
       </c>
       <c r="O17" s="256" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="R17" s="258" t="s">
         <v>970</v>
@@ -18035,7 +18047,7 @@
         <v>586</v>
       </c>
       <c r="R19" s="258" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="T19" s="258" t="str">
         <f t="shared" si="0"/>
@@ -18059,7 +18071,7 @@
         <v>587</v>
       </c>
       <c r="R20" s="258" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="T20" s="258" t="str">
         <f t="shared" si="0"/>
@@ -18083,7 +18095,7 @@
         <v>588</v>
       </c>
       <c r="R21" s="258" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="T21" s="258" t="str">
         <f t="shared" si="0"/>

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1005" windowWidth="24240" windowHeight="13680" tabRatio="463" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="1005" windowWidth="24240" windowHeight="13680" tabRatio="463"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="127" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="1065">
   <si>
     <t>Country</t>
   </si>
@@ -3502,6 +3502,21 @@
   </si>
   <si>
     <t>greenhouse, hydroponic system, heated</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Cranberry</t>
+  </si>
+  <si>
+    <t>Raspberry</t>
   </si>
 </sst>
 </file>
@@ -6132,6 +6147,21 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6143,21 +6173,6 @@
     </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8309,7 +8324,7 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -8371,25 +8386,25 @@
     </row>
     <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="159"/>
-      <c r="B5" s="265"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
+      <c r="B5" s="261"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
-      <c r="B6" s="266" t="s">
+      <c r="B6" s="262" t="s">
         <v>1043</v>
       </c>
-      <c r="C6" s="267"/>
-      <c r="D6" s="267"/>
-      <c r="E6" s="267"/>
-      <c r="F6" s="267"/>
-      <c r="G6" s="267"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
@@ -8406,14 +8421,14 @@
     </row>
     <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A8" s="154"/>
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="264" t="s">
         <v>708</v>
       </c>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="268"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
@@ -8430,14 +8445,14 @@
     </row>
     <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="269" t="s">
+      <c r="B10" s="265" t="s">
         <v>772</v>
       </c>
-      <c r="C10" s="269"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="269"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="265"/>
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
@@ -8445,10 +8460,10 @@
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="269"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="265"/>
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
@@ -8521,23 +8536,23 @@
     </row>
     <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A17" s="154"/>
-      <c r="B17" s="262" t="s">
+      <c r="B17" s="267" t="s">
         <v>711</v>
       </c>
-      <c r="C17" s="262"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="262"/>
-      <c r="F17" s="262"/>
-      <c r="G17" s="262"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="267"/>
+      <c r="E17" s="267"/>
+      <c r="F17" s="267"/>
+      <c r="G17" s="267"/>
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
     <row r="18" spans="1:9" s="160" customFormat="1">
       <c r="A18" s="159"/>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="268" t="s">
         <v>712</v>
       </c>
-      <c r="C18" s="263"/>
+      <c r="C18" s="268"/>
       <c r="D18" s="180" t="s">
         <v>713</v>
       </c>
@@ -8555,10 +8570,10 @@
     </row>
     <row r="19" spans="1:9" s="160" customFormat="1">
       <c r="A19" s="159"/>
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="269" t="s">
         <v>717</v>
       </c>
-      <c r="C19" s="264"/>
+      <c r="C19" s="269"/>
       <c r="D19" s="166" t="s">
         <v>718</v>
       </c>
@@ -8597,10 +8612,10 @@
     </row>
     <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
-      <c r="B21" s="261" t="s">
+      <c r="B21" s="266" t="s">
         <v>720</v>
       </c>
-      <c r="C21" s="261"/>
+      <c r="C21" s="266"/>
       <c r="D21" s="167" t="s">
         <v>721</v>
       </c>
@@ -8618,10 +8633,10 @@
     </row>
     <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
-      <c r="B22" s="261" t="s">
+      <c r="B22" s="266" t="s">
         <v>724</v>
       </c>
-      <c r="C22" s="261"/>
+      <c r="C22" s="266"/>
       <c r="D22" s="167" t="s">
         <v>725</v>
       </c>
@@ -8735,12 +8750,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="B21:C21"/>
@@ -8749,6 +8758,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <phoneticPr fontId="83" type="noConversion"/>
   <hyperlinks>
@@ -12821,10 +12836,10 @@
   </sheetPr>
   <dimension ref="A1:AB225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -17128,12 +17143,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="19">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lists!$J$2:$J$39</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$8</xm:f>
@@ -17202,12 +17211,6 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$I$2:$I$50</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Lists!$M$2:$M$141</xm:f>
           </x14:formula1>
           <xm:sqref>C134:C136</xm:sqref>
@@ -17242,6 +17245,18 @@
           </x14:formula1>
           <xm:sqref>C148:C150</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lists!$J$2:$J$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lists!$I$2:$I$53</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -17759,7 +17774,7 @@
         <v>199</v>
       </c>
       <c r="I9" s="257" t="s">
-        <v>926</v>
+        <v>1062</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>61</v>
@@ -17791,8 +17806,8 @@
       <c r="G10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I10" s="258" t="s">
-        <v>197</v>
+      <c r="I10" s="257" t="s">
+        <v>926</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>62</v>
@@ -17824,8 +17839,8 @@
       <c r="G11" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I11" s="257" t="s">
-        <v>927</v>
+      <c r="I11" s="258" t="s">
+        <v>197</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>63</v>
@@ -17858,7 +17873,7 @@
         <v>207</v>
       </c>
       <c r="I12" s="257" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>59</v>
@@ -17885,7 +17900,7 @@
         <v>208</v>
       </c>
       <c r="I13" s="257" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>65</v>
@@ -17911,8 +17926,8 @@
       <c r="G14" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="I14" s="258" t="s">
-        <v>200</v>
+      <c r="I14" s="257" t="s">
+        <v>929</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>67</v>
@@ -17936,7 +17951,7 @@
     </row>
     <row r="15" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I15" s="258" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>68</v>
@@ -17960,7 +17975,7 @@
     </row>
     <row r="16" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I16" s="258" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
@@ -17983,8 +17998,8 @@
       </c>
     </row>
     <row r="17" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I17" s="257" t="s">
-        <v>930</v>
+      <c r="I17" s="258" t="s">
+        <v>206</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>69</v>
@@ -18008,7 +18023,7 @@
     </row>
     <row r="18" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I18" s="257" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>70</v>
@@ -18032,7 +18047,7 @@
     </row>
     <row r="19" spans="9:20" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I19" s="257" t="s">
-        <v>932</v>
+        <v>1063</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>73</v>
@@ -18056,7 +18071,7 @@
     </row>
     <row r="20" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I20" s="257" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>71</v>
@@ -18080,7 +18095,7 @@
     </row>
     <row r="21" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I21" s="257" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>72</v>
@@ -18104,7 +18119,7 @@
     </row>
     <row r="22" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I22" s="257" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>74</v>
@@ -18127,8 +18142,8 @@
       </c>
     </row>
     <row r="23" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I23" s="258" t="s">
-        <v>231</v>
+      <c r="I23" s="257" t="s">
+        <v>934</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>75</v>
@@ -18145,10 +18160,10 @@
     </row>
     <row r="24" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I24" s="257" t="s">
-        <v>936</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>935</v>
+      </c>
+      <c r="J24" s="258" t="s">
+        <v>1061</v>
       </c>
       <c r="M24" s="256" t="s">
         <v>388</v>
@@ -18162,10 +18177,10 @@
     </row>
     <row r="25" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I25" s="258" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M25" s="256" t="s">
         <v>389</v>
@@ -18178,11 +18193,11 @@
       </c>
     </row>
     <row r="26" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I26" s="258" t="s">
-        <v>232</v>
+      <c r="I26" s="257" t="s">
+        <v>936</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M26" s="256" t="s">
         <v>390</v>
@@ -18196,10 +18211,10 @@
     </row>
     <row r="27" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I27" s="258" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M27" s="256" t="s">
         <v>391</v>
@@ -18212,11 +18227,11 @@
       </c>
     </row>
     <row r="28" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I28" s="257" t="s">
-        <v>937</v>
+      <c r="I28" s="258" t="s">
+        <v>232</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M28" s="256" t="s">
         <v>392</v>
@@ -18230,10 +18245,10 @@
     </row>
     <row r="29" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I29" s="258" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M29" s="256" t="s">
         <v>393</v>
@@ -18247,10 +18262,10 @@
     </row>
     <row r="30" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I30" s="257" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M30" s="256" t="s">
         <v>874</v>
@@ -18264,10 +18279,10 @@
     </row>
     <row r="31" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I31" s="258" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M31" s="256" t="s">
         <v>394</v>
@@ -18280,11 +18295,11 @@
       </c>
     </row>
     <row r="32" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I32" s="258" t="s">
-        <v>213</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>66</v>
+      <c r="I32" s="257" t="s">
+        <v>938</v>
+      </c>
+      <c r="J32" s="258" t="s">
+        <v>1060</v>
       </c>
       <c r="M32" s="256" t="s">
         <v>395</v>
@@ -18298,10 +18313,10 @@
     </row>
     <row r="33" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I33" s="258" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M33" s="256" t="s">
         <v>396</v>
@@ -18315,10 +18330,10 @@
     </row>
     <row r="34" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I34" s="258" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M34" s="256" t="s">
         <v>397</v>
@@ -18332,10 +18347,10 @@
     </row>
     <row r="35" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I35" s="258" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M35" s="256" t="s">
         <v>398</v>
@@ -18349,10 +18364,10 @@
     </row>
     <row r="36" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I36" s="258" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="M36" s="256" t="s">
         <v>399</v>
@@ -18366,10 +18381,10 @@
     </row>
     <row r="37" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I37" s="258" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M37" s="256" t="s">
         <v>875</v>
@@ -18383,10 +18398,10 @@
     </row>
     <row r="38" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I38" s="258" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M38" s="256" t="s">
         <v>400</v>
@@ -18400,10 +18415,10 @@
     </row>
     <row r="39" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I39" s="258" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M39" s="256" t="s">
         <v>401</v>
@@ -18417,7 +18432,10 @@
     </row>
     <row r="40" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I40" s="258" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="M40" s="256" t="s">
         <v>402</v>
@@ -18431,7 +18449,10 @@
     </row>
     <row r="41" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I41" s="258" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="M41" s="256" t="s">
         <v>871</v>
@@ -18445,7 +18466,7 @@
     </row>
     <row r="42" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I42" s="258" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M42" s="256" t="s">
         <v>404</v>
@@ -18459,7 +18480,7 @@
     </row>
     <row r="43" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I43" s="258" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M43" s="256" t="s">
         <v>405</v>
@@ -18473,7 +18494,7 @@
     </row>
     <row r="44" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I44" s="258" t="s">
-        <v>228</v>
+        <v>1064</v>
       </c>
       <c r="M44" s="256" t="s">
         <v>406</v>
@@ -18487,7 +18508,7 @@
     </row>
     <row r="45" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I45" s="258" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M45" s="256" t="s">
         <v>407</v>
@@ -18501,7 +18522,7 @@
     </row>
     <row r="46" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I46" s="258" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M46" s="256" t="s">
         <v>408</v>
@@ -18515,7 +18536,7 @@
     </row>
     <row r="47" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I47" s="258" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M47" s="256" t="s">
         <v>409</v>
@@ -18529,7 +18550,7 @@
     </row>
     <row r="48" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I48" s="258" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M48" s="256" t="s">
         <v>410</v>
@@ -18543,7 +18564,7 @@
     </row>
     <row r="49" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I49" s="258" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M49" s="256" t="s">
         <v>411</v>
@@ -18557,7 +18578,7 @@
     </row>
     <row r="50" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I50" s="258" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M50" s="256" t="s">
         <v>403</v>
@@ -18570,6 +18591,9 @@
       </c>
     </row>
     <row r="51" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I51" s="258" t="s">
+        <v>225</v>
+      </c>
       <c r="M51" s="256" t="s">
         <v>412</v>
       </c>
@@ -18581,6 +18605,9 @@
       </c>
     </row>
     <row r="52" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I52" s="258" t="s">
+        <v>226</v>
+      </c>
       <c r="M52" s="256" t="s">
         <v>413</v>
       </c>
@@ -18592,6 +18619,9 @@
       </c>
     </row>
     <row r="53" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="I53" s="258" t="s">
+        <v>227</v>
+      </c>
       <c r="M53" s="256" t="s">
         <v>414</v>
       </c>
@@ -18701,7 +18731,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="63" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="63" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M63" s="256" t="s">
         <v>878</v>
       </c>
@@ -18723,7 +18753,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="65" spans="13:20" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="65" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M65" s="256" t="s">
         <v>879</v>
       </c>
@@ -18734,7 +18764,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="66" spans="13:20" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="66" spans="9:20" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M66" s="256" t="s">
         <v>423</v>
       </c>
@@ -18745,7 +18775,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="67" spans="13:20" ht="15.75" thickBot="1">
+    <row r="67" spans="9:20" ht="15.75" thickBot="1">
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="M67" s="256" t="s">
         <v>424</v>
       </c>
@@ -18761,7 +18793,9 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="13:20" ht="15.75" thickBot="1">
+    <row r="68" spans="9:20" ht="15.75" thickBot="1">
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="M68" s="256" t="s">
         <v>425</v>
       </c>
@@ -18772,7 +18806,8 @@
         <v>623</v>
       </c>
     </row>
-    <row r="69" spans="13:20" ht="27" thickBot="1">
+    <row r="69" spans="9:20" ht="27" thickBot="1">
+      <c r="I69" s="1"/>
       <c r="M69" s="256" t="s">
         <v>881</v>
       </c>
@@ -18783,7 +18818,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="70" spans="13:20" ht="15.75" thickBot="1">
+    <row r="70" spans="9:20" ht="15.75" thickBot="1">
       <c r="M70" s="256" t="s">
         <v>882</v>
       </c>
@@ -18794,7 +18829,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="71" spans="13:20" ht="15.75" thickBot="1">
+    <row r="71" spans="9:20" ht="15.75" thickBot="1">
       <c r="M71" s="256" t="s">
         <v>426</v>
       </c>
@@ -18805,7 +18840,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="72" spans="13:20" ht="15.75" thickBot="1">
+    <row r="72" spans="9:20" ht="15.75" thickBot="1">
       <c r="M72" s="256" t="s">
         <v>427</v>
       </c>
@@ -18816,7 +18851,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="73" spans="13:20" ht="27" thickBot="1">
+    <row r="73" spans="9:20" ht="27" thickBot="1">
       <c r="M73" s="256" t="s">
         <v>428</v>
       </c>
@@ -18827,7 +18862,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="74" spans="13:20" ht="15.75" thickBot="1">
+    <row r="74" spans="9:20" ht="15.75" thickBot="1">
       <c r="M74" s="256" t="s">
         <v>429</v>
       </c>
@@ -18838,7 +18873,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="75" spans="13:20" ht="15.75" thickBot="1">
+    <row r="75" spans="9:20" ht="15.75" thickBot="1">
       <c r="M75" s="256" t="s">
         <v>883</v>
       </c>
@@ -18849,7 +18884,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="76" spans="13:20" ht="15.75" thickBot="1">
+    <row r="76" spans="9:20" ht="15.75" thickBot="1">
       <c r="M76" s="256" t="s">
         <v>431</v>
       </c>
@@ -18860,7 +18895,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="77" spans="13:20" ht="15.75" thickBot="1">
+    <row r="77" spans="9:20" ht="15.75" thickBot="1">
       <c r="M77" s="256" t="s">
         <v>430</v>
       </c>
@@ -18871,7 +18906,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="78" spans="13:20" ht="15.75" thickBot="1">
+    <row r="78" spans="9:20" ht="15.75" thickBot="1">
       <c r="M78" s="256" t="s">
         <v>432</v>
       </c>
@@ -18882,7 +18917,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="79" spans="13:20" ht="27" thickBot="1">
+    <row r="79" spans="9:20" ht="27" thickBot="1">
       <c r="M79" s="256" t="s">
         <v>433</v>
       </c>
@@ -18893,7 +18928,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="80" spans="13:20" ht="15.75" thickBot="1">
+    <row r="80" spans="9:20" ht="15.75" thickBot="1">
       <c r="M80" s="256" t="s">
         <v>434</v>
       </c>

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="1072">
   <si>
     <t>Country</t>
   </si>
@@ -663,9 +663,6 @@
     <t xml:space="preserve">Transport, tractor and trailer </t>
   </si>
   <si>
-    <t>Asparagus</t>
-  </si>
-  <si>
     <t>Soil tillage, spring-tine harrow</t>
   </si>
   <si>
@@ -711,9 +708,6 @@
     <t>Mowing, with rotary mower</t>
   </si>
   <si>
-    <t>Coffee</t>
-  </si>
-  <si>
     <t>Removing potato haulms</t>
   </si>
   <si>
@@ -738,9 +732,6 @@
     <t>Onion</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
     <t>Peach</t>
   </si>
   <si>
@@ -762,18 +753,12 @@
     <t>Soybean</t>
   </si>
   <si>
-    <t>Strawberry</t>
-  </si>
-  <si>
     <t>Sunflower</t>
   </si>
   <si>
     <t>Tea</t>
   </si>
   <si>
-    <t>Tomato</t>
-  </si>
-  <si>
     <t>Wheat</t>
   </si>
   <si>
@@ -784,9 +769,6 @@
   </si>
   <si>
     <t>Sweet corn</t>
-  </si>
-  <si>
-    <t>Lemon/Lime</t>
   </si>
   <si>
     <t>Maize grain</t>
@@ -3102,9 +3084,6 @@
     <t>Bell pepper</t>
   </si>
   <si>
-    <t>Cabbage</t>
-  </si>
-  <si>
     <t>Cashew</t>
   </si>
   <si>
@@ -3517,6 +3496,48 @@
   </si>
   <si>
     <t>Raspberry</t>
+  </si>
+  <si>
+    <t>Green asparagus</t>
+  </si>
+  <si>
+    <t>White asparagus</t>
+  </si>
+  <si>
+    <t>Cabbage white</t>
+  </si>
+  <si>
+    <t>Cabbage red</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>Citrus lime</t>
+  </si>
+  <si>
+    <t>Orange fresh grade</t>
+  </si>
+  <si>
+    <t>Orange processing grade</t>
+  </si>
+  <si>
+    <t>Tomato fresh grade</t>
+  </si>
+  <si>
+    <t>Tomato processing grade</t>
+  </si>
+  <si>
+    <t>Coffee robusta</t>
+  </si>
+  <si>
+    <t>Coffee arabica</t>
+  </si>
+  <si>
+    <t>Strawberry fresh grade</t>
+  </si>
+  <si>
+    <t>Strawberry processing grade</t>
   </si>
 </sst>
 </file>
@@ -8398,7 +8419,7 @@
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
       <c r="B6" s="262" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="C6" s="263"/>
       <c r="D6" s="263"/>
@@ -8422,7 +8443,7 @@
     <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A8" s="154"/>
       <c r="B8" s="264" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C8" s="264"/>
       <c r="D8" s="264"/>
@@ -8446,7 +8467,7 @@
     <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
       <c r="B10" s="265" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C10" s="265"/>
       <c r="D10" s="265"/>
@@ -8470,11 +8491,11 @@
     <row r="12" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A12" s="154"/>
       <c r="B12" s="179" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C12" s="174"/>
       <c r="D12" s="260" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E12" s="260"/>
       <c r="F12" s="260"/>
@@ -8485,11 +8506,11 @@
     <row r="13" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A13" s="154"/>
       <c r="B13" s="179" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="260" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E13" s="260"/>
       <c r="F13" s="260"/>
@@ -8500,11 +8521,11 @@
     <row r="14" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A14" s="154"/>
       <c r="B14" s="179" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="260" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E14" s="260"/>
       <c r="F14" s="260"/>
@@ -8537,7 +8558,7 @@
     <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A17" s="154"/>
       <c r="B17" s="267" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C17" s="267"/>
       <c r="D17" s="267"/>
@@ -8550,20 +8571,20 @@
     <row r="18" spans="1:9" s="160" customFormat="1">
       <c r="A18" s="159"/>
       <c r="B18" s="268" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C18" s="268"/>
       <c r="D18" s="180" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E18" s="180" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F18" s="180" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="G18" s="180" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="H18" s="156"/>
       <c r="I18" s="156"/>
@@ -8571,20 +8592,20 @@
     <row r="19" spans="1:9" s="160" customFormat="1">
       <c r="A19" s="159"/>
       <c r="B19" s="269" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C19" s="269"/>
       <c r="D19" s="166" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E19" s="167" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F19" s="168" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="G19" s="169" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="H19" s="156"/>
       <c r="I19" s="156"/>
@@ -8592,20 +8613,20 @@
     <row r="20" spans="1:9" s="160" customFormat="1">
       <c r="A20" s="159"/>
       <c r="B20" s="208" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C20" s="208"/>
       <c r="D20" s="166" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E20" s="167" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="F20" s="168" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="G20" s="169" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="H20" s="156"/>
       <c r="I20" s="156"/>
@@ -8613,20 +8634,20 @@
     <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
       <c r="B21" s="266" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C21" s="266"/>
       <c r="D21" s="167" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E21" s="167" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F21" s="170" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G21" s="169" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H21" s="156"/>
       <c r="I21" s="156"/>
@@ -8634,20 +8655,20 @@
     <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
       <c r="B22" s="266" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C22" s="266"/>
       <c r="D22" s="167" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E22" s="167" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F22" s="170" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G22" s="169" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H22" s="156"/>
       <c r="I22" s="156"/>
@@ -8674,7 +8695,7 @@
     <row r="25" spans="1:9" s="165" customFormat="1" ht="15.75">
       <c r="A25" s="164"/>
       <c r="B25" s="171" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C25" s="172"/>
       <c r="D25" s="178"/>
@@ -8685,7 +8706,7 @@
     <row r="26" spans="1:9" s="165" customFormat="1">
       <c r="A26" s="164"/>
       <c r="B26" s="172" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C26" s="172"/>
       <c r="D26" s="178"/>
@@ -8696,7 +8717,7 @@
     <row r="27" spans="1:9" s="165" customFormat="1">
       <c r="A27" s="164"/>
       <c r="B27" s="172" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C27" s="172"/>
       <c r="D27" s="178"/>
@@ -8707,7 +8728,7 @@
     <row r="28" spans="1:9" s="165" customFormat="1">
       <c r="A28" s="164"/>
       <c r="B28" s="172" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C28" s="172"/>
       <c r="D28" s="178"/>
@@ -8718,7 +8739,7 @@
     <row r="29" spans="1:9" s="165" customFormat="1">
       <c r="A29" s="164"/>
       <c r="B29" s="172" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C29" s="172"/>
       <c r="D29" s="178"/>
@@ -8729,7 +8750,7 @@
     <row r="30" spans="1:9" s="165" customFormat="1">
       <c r="A30" s="164"/>
       <c r="B30" s="172" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C30" s="172"/>
       <c r="D30" s="178"/>
@@ -8740,7 +8761,7 @@
     <row r="31" spans="1:9" s="165" customFormat="1">
       <c r="A31" s="164"/>
       <c r="B31" s="172" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C31" s="172"/>
       <c r="D31" s="178"/>
@@ -8805,21 +8826,21 @@
   <sheetData>
     <row r="1" spans="1:6" hidden="1">
       <c r="A1" s="98" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D1" s="105" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E1" s="209" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="90" customHeight="1">
       <c r="B2" s="270" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C2" s="270"/>
       <c r="D2" s="270"/>
@@ -8836,10 +8857,10 @@
     <row r="4" spans="1:6" s="11" customFormat="1" ht="60.95" customHeight="1">
       <c r="B4" s="185"/>
       <c r="C4" s="196" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D4" s="271" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E4" s="271"/>
       <c r="F4" s="63"/>
@@ -8847,10 +8868,10 @@
     <row r="5" spans="1:6" s="11" customFormat="1" ht="30.95" customHeight="1">
       <c r="B5" s="185"/>
       <c r="C5" s="196" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D5" s="272" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E5" s="272"/>
       <c r="F5" s="63"/>
@@ -8880,13 +8901,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="243" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" outlineLevel="1">
       <c r="A9" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>135</v>
@@ -8901,7 +8922,7 @@
     </row>
     <row r="10" spans="1:6" outlineLevel="1">
       <c r="A10" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>136</v>
@@ -8916,7 +8937,7 @@
     </row>
     <row r="11" spans="1:6" outlineLevel="1">
       <c r="A11" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>137</v>
@@ -8931,7 +8952,7 @@
     </row>
     <row r="12" spans="1:6" outlineLevel="1">
       <c r="A12" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>138</v>
@@ -8946,7 +8967,7 @@
     </row>
     <row r="13" spans="1:6" outlineLevel="1">
       <c r="A13" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>103</v>
@@ -8961,7 +8982,7 @@
     </row>
     <row r="14" spans="1:6" outlineLevel="1">
       <c r="C14" s="32" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D14" s="142"/>
       <c r="E14" s="213"/>
@@ -8972,7 +8993,7 @@
         <v>401</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>21</v>
@@ -8987,7 +9008,7 @@
         <v>662</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>21</v>
@@ -9002,7 +9023,7 @@
         <v>493</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>21</v>
@@ -9032,7 +9053,7 @@
         <v>201</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>21</v>
@@ -9047,7 +9068,7 @@
         <v>202</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>21</v>
@@ -9062,7 +9083,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>21</v>
@@ -9077,7 +9098,7 @@
         <v>205</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>21</v>
@@ -9092,7 +9113,7 @@
         <v>206</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>21</v>
@@ -9107,7 +9128,7 @@
         <v>304</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>21</v>
@@ -9122,7 +9143,7 @@
         <v>400</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>21</v>
@@ -9137,7 +9158,7 @@
         <v>402</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>21</v>
@@ -9152,7 +9173,7 @@
         <v>404</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>21</v>
@@ -9167,7 +9188,7 @@
         <v>490</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>21</v>
@@ -9182,7 +9203,7 @@
         <v>491</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>21</v>
@@ -9197,7 +9218,7 @@
         <v>492</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>21</v>
@@ -9212,7 +9233,7 @@
         <v>494</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>21</v>
@@ -9227,7 +9248,7 @@
         <v>495</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>21</v>
@@ -9242,7 +9263,7 @@
         <v>496</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>21</v>
@@ -9257,7 +9278,7 @@
         <v>497</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>21</v>
@@ -9272,7 +9293,7 @@
         <v>498</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>21</v>
@@ -9287,7 +9308,7 @@
         <v>499</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>21</v>
@@ -9302,7 +9323,7 @@
         <v>501</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>21</v>
@@ -9317,7 +9338,7 @@
         <v>502</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>21</v>
@@ -9332,7 +9353,7 @@
         <v>601</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>21</v>
@@ -9347,7 +9368,7 @@
         <v>602</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>21</v>
@@ -9362,7 +9383,7 @@
         <v>603</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>21</v>
@@ -9377,7 +9398,7 @@
         <v>611</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>21</v>
@@ -9392,7 +9413,7 @@
         <v>663</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>21</v>
@@ -9407,7 +9428,7 @@
         <v>692</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>21</v>
@@ -9422,7 +9443,7 @@
         <v>722</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>21</v>
@@ -9437,7 +9458,7 @@
         <v>724</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>21</v>
@@ -9452,7 +9473,7 @@
         <v>725</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>21</v>
@@ -9467,7 +9488,7 @@
         <v>726</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>21</v>
@@ -9482,7 +9503,7 @@
         <v>727</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>21</v>
@@ -9497,7 +9518,7 @@
         <v>751</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>21</v>
@@ -9512,7 +9533,7 @@
         <v>302</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>21</v>
@@ -9527,7 +9548,7 @@
         <v>756</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>21</v>
@@ -9542,7 +9563,7 @@
         <v>757</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>21</v>
@@ -9557,7 +9578,7 @@
         <v>758</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>21</v>
@@ -9572,7 +9593,7 @@
         <v>759</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>21</v>
@@ -9587,7 +9608,7 @@
         <v>760</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>21</v>
@@ -9602,7 +9623,7 @@
         <v>761</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>21</v>
@@ -9617,7 +9638,7 @@
         <v>762</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>21</v>
@@ -9632,7 +9653,7 @@
         <v>208</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>21</v>
@@ -9647,7 +9668,7 @@
         <v>5616</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>21</v>
@@ -9662,7 +9683,7 @@
         <v>5615</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>21</v>
@@ -9677,7 +9698,7 @@
         <v>5619</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>21</v>
@@ -9690,7 +9711,7 @@
     <row r="63" spans="1:6" outlineLevel="1" collapsed="1">
       <c r="A63" s="153"/>
       <c r="C63" s="32" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D63" s="142"/>
       <c r="E63" s="143"/>
@@ -9699,10 +9720,10 @@
     <row r="64" spans="1:6" outlineLevel="1">
       <c r="A64" s="153"/>
       <c r="C64" s="19" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>99</v>
@@ -9712,10 +9733,10 @@
     <row r="65" spans="1:6" outlineLevel="1">
       <c r="A65" s="153"/>
       <c r="C65" s="19" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>99</v>
@@ -9725,10 +9746,10 @@
     <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" s="153"/>
       <c r="C66" s="19" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>99</v>
@@ -9738,10 +9759,10 @@
     <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" s="153"/>
       <c r="C67" s="19" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>99</v>
@@ -9751,10 +9772,10 @@
     <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" s="153"/>
       <c r="C68" s="19" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>99</v>
@@ -9764,10 +9785,10 @@
     <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" s="153"/>
       <c r="C69" s="19" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>99</v>
@@ -9783,7 +9804,7 @@
         <v>8</v>
       </c>
       <c r="E70" s="242" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F70" s="64"/>
     </row>
@@ -9797,7 +9818,7 @@
     </row>
     <row r="72" spans="1:6" outlineLevel="1">
       <c r="A72" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>98</v>
@@ -9812,10 +9833,10 @@
     </row>
     <row r="73" spans="1:6" outlineLevel="1">
       <c r="A73" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>22</v>
@@ -9827,7 +9848,7 @@
     </row>
     <row r="74" spans="1:6" outlineLevel="1">
       <c r="A74" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>26</v>
@@ -9846,16 +9867,16 @@
       </c>
       <c r="D75" s="146"/>
       <c r="E75" s="216" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F75" s="64"/>
     </row>
     <row r="76" spans="1:6" outlineLevel="1">
       <c r="A76" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>100</v>
@@ -9867,52 +9888,52 @@
     </row>
     <row r="77" spans="1:6" outlineLevel="1">
       <c r="A77" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>100</v>
       </c>
       <c r="E77" s="217" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F77" s="64"/>
     </row>
     <row r="78" spans="1:6" outlineLevel="1">
       <c r="A78" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>100</v>
       </c>
       <c r="E78" s="217" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F78" s="64"/>
     </row>
     <row r="79" spans="1:6" outlineLevel="1">
       <c r="A79" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>100</v>
       </c>
       <c r="E79" s="217" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F79" s="64"/>
     </row>
     <row r="80" spans="1:6" outlineLevel="1">
       <c r="A80" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>130</v>
@@ -9927,7 +9948,7 @@
     </row>
     <row r="81" spans="1:6" outlineLevel="1">
       <c r="A81" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>131</v>
@@ -9942,7 +9963,7 @@
     </row>
     <row r="82" spans="1:6" outlineLevel="1">
       <c r="A82" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>132</v>
@@ -9957,7 +9978,7 @@
     </row>
     <row r="83" spans="1:6" outlineLevel="1">
       <c r="A83" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C83" s="32" t="s">
         <v>117</v>
@@ -9972,7 +9993,7 @@
     </row>
     <row r="84" spans="1:6" outlineLevel="1">
       <c r="A84" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C84" s="32" t="s">
         <v>118</v>
@@ -9994,13 +10015,13 @@
         <v>8</v>
       </c>
       <c r="E85" s="241" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" s="6" customFormat="1" outlineLevel="1">
       <c r="A86" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="37" t="s">
@@ -10010,7 +10031,7 @@
         <v>32</v>
       </c>
       <c r="E86" s="218" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F86" s="18"/>
     </row>
@@ -10025,10 +10046,10 @@
     </row>
     <row r="88" spans="1:6" outlineLevel="1">
       <c r="A88" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C88" s="151" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D88" s="39" t="s">
         <v>22</v>
@@ -10040,10 +10061,10 @@
     </row>
     <row r="89" spans="1:6" outlineLevel="1">
       <c r="A89" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C89" s="151" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>22</v>
@@ -10055,10 +10076,10 @@
     </row>
     <row r="90" spans="1:6" outlineLevel="1">
       <c r="A90" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C90" s="151" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D90" s="39" t="s">
         <v>22</v>
@@ -10070,10 +10091,10 @@
     </row>
     <row r="91" spans="1:6" outlineLevel="1">
       <c r="A91" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C91" s="151" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>22</v>
@@ -10085,10 +10106,10 @@
     </row>
     <row r="92" spans="1:6" outlineLevel="1">
       <c r="A92" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C92" s="151" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>22</v>
@@ -10100,10 +10121,10 @@
     </row>
     <row r="93" spans="1:6" outlineLevel="1">
       <c r="A93" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C93" s="151" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>22</v>
@@ -10115,10 +10136,10 @@
     </row>
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C94" s="151" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>22</v>
@@ -10139,7 +10160,7 @@
     </row>
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C96" s="152" t="s">
         <v>30</v>
@@ -10154,7 +10175,7 @@
     </row>
     <row r="97" spans="1:6" outlineLevel="1">
       <c r="A97" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C97" s="152" t="s">
         <v>9</v>
@@ -10169,7 +10190,7 @@
     </row>
     <row r="98" spans="1:6" outlineLevel="1">
       <c r="A98" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C98" s="152" t="s">
         <v>104</v>
@@ -10191,13 +10212,13 @@
         <v>8</v>
       </c>
       <c r="E99" s="54" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" ht="45" outlineLevel="1">
       <c r="A100" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C100" s="41" t="s">
         <v>53</v>
@@ -10206,7 +10227,7 @@
         <v>31</v>
       </c>
       <c r="E100" s="214" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F100" s="64"/>
     </row>
@@ -10219,13 +10240,13 @@
         <v>8</v>
       </c>
       <c r="E101" s="74" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" ht="21">
       <c r="A102" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B102" s="70"/>
       <c r="C102" s="71" t="s">
@@ -10235,16 +10256,16 @@
         <v>8</v>
       </c>
       <c r="E102" s="72" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F102" s="64"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" outlineLevel="1">
       <c r="A103" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>37</v>
@@ -10256,7 +10277,7 @@
     </row>
     <row r="104" spans="1:6" outlineLevel="1">
       <c r="A104" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C104" s="46" t="s">
         <v>45</v>
@@ -10271,7 +10292,7 @@
     </row>
     <row r="105" spans="1:6" outlineLevel="1">
       <c r="A105" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C105" s="46" t="s">
         <v>38</v>
@@ -10286,10 +10307,10 @@
     </row>
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D106" s="23" t="s">
         <v>22</v>
@@ -10301,7 +10322,7 @@
     </row>
     <row r="107" spans="1:6" outlineLevel="1">
       <c r="A107" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C107" s="46" t="s">
         <v>43</v>
@@ -10316,7 +10337,7 @@
     </row>
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C108" s="46" t="s">
         <v>41</v>
@@ -10331,7 +10352,7 @@
     </row>
     <row r="109" spans="1:6" outlineLevel="1">
       <c r="A109" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C109" s="46" t="s">
         <v>42</v>
@@ -10346,7 +10367,7 @@
     </row>
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C110" s="46" t="s">
         <v>40</v>
@@ -10361,7 +10382,7 @@
     </row>
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C111" s="46" t="s">
         <v>44</v>
@@ -10376,7 +10397,7 @@
     </row>
     <row r="112" spans="1:6" outlineLevel="1">
       <c r="A112" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C112" s="46" t="s">
         <v>39</v>
@@ -10391,10 +10412,10 @@
     </row>
     <row r="113" spans="1:6" outlineLevel="1">
       <c r="A113" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D113" s="23" t="s">
         <v>22</v>
@@ -10406,7 +10427,7 @@
     </row>
     <row r="114" spans="1:6" ht="21">
       <c r="A114" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B114" s="70"/>
       <c r="C114" s="71" t="s">
@@ -10416,16 +10437,16 @@
         <v>8</v>
       </c>
       <c r="E114" s="72" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F114" s="64"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" outlineLevel="1">
       <c r="A115" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C115" s="44" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>46</v>
@@ -10437,10 +10458,10 @@
     </row>
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D116" s="23" t="s">
         <v>22</v>
@@ -10452,10 +10473,10 @@
     </row>
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D117" s="23" t="s">
         <v>22</v>
@@ -10467,10 +10488,10 @@
     </row>
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>22</v>
@@ -10482,10 +10503,10 @@
     </row>
     <row r="119" spans="1:6" outlineLevel="1">
       <c r="A119" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>22</v>
@@ -10497,10 +10518,10 @@
     </row>
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D120" s="23" t="s">
         <v>22</v>
@@ -10512,10 +10533,10 @@
     </row>
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D121" s="23" t="s">
         <v>22</v>
@@ -10527,10 +10548,10 @@
     </row>
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D122" s="23" t="s">
         <v>22</v>
@@ -10542,7 +10563,7 @@
     </row>
     <row r="123" spans="1:6" ht="21">
       <c r="A123" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B123" s="70"/>
       <c r="C123" s="71" t="s">
@@ -10552,16 +10573,16 @@
         <v>8</v>
       </c>
       <c r="E123" s="72" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F123" s="64"/>
     </row>
     <row r="124" spans="1:6" outlineLevel="1">
       <c r="A124" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>47</v>
@@ -10573,7 +10594,7 @@
     </row>
     <row r="125" spans="1:6" outlineLevel="1">
       <c r="A125" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C125" s="46" t="s">
         <v>51</v>
@@ -10588,7 +10609,7 @@
     </row>
     <row r="126" spans="1:6" outlineLevel="1">
       <c r="A126" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C126" s="46" t="s">
         <v>50</v>
@@ -10603,7 +10624,7 @@
     </row>
     <row r="127" spans="1:6" outlineLevel="1">
       <c r="A127" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C127" s="46" t="s">
         <v>48</v>
@@ -10618,7 +10639,7 @@
     </row>
     <row r="128" spans="1:6" outlineLevel="1">
       <c r="A128" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C128" s="46" t="s">
         <v>49</v>
@@ -10633,7 +10654,7 @@
     </row>
     <row r="129" spans="1:6" ht="21">
       <c r="A129" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B129" s="70"/>
       <c r="C129" s="71" t="s">
@@ -10643,13 +10664,13 @@
         <v>8</v>
       </c>
       <c r="E129" s="72" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F129" s="64"/>
     </row>
     <row r="130" spans="1:6" outlineLevel="1">
       <c r="A130" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C130" s="30" t="s">
         <v>107</v>
@@ -10664,7 +10685,7 @@
     </row>
     <row r="131" spans="1:6" outlineLevel="1">
       <c r="A131" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C131" s="46" t="s">
         <v>139</v>
@@ -10679,7 +10700,7 @@
     </row>
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C132" s="30" t="s">
         <v>109</v>
@@ -10694,7 +10715,7 @@
     </row>
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C133" s="46" t="s">
         <v>112</v>
@@ -10709,7 +10730,7 @@
     </row>
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C134" s="46" t="s">
         <v>111</v>
@@ -10724,7 +10745,7 @@
     </row>
     <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C135" s="46" t="s">
         <v>113</v>
@@ -10746,13 +10767,13 @@
         <v>8</v>
       </c>
       <c r="E136" s="72" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F136" s="64"/>
     </row>
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C137" s="29" t="s">
         <v>33</v>
@@ -10767,10 +10788,10 @@
     </row>
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C138" s="236" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>22</v>
@@ -10782,10 +10803,10 @@
     </row>
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C139" s="236" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>22</v>
@@ -10797,10 +10818,10 @@
     </row>
     <row r="140" spans="1:6" outlineLevel="1">
       <c r="A140" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C140" s="236" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>22</v>
@@ -10812,10 +10833,10 @@
     </row>
     <row r="141" spans="1:6" outlineLevel="1">
       <c r="A141" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C141" s="236" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>22</v>
@@ -10827,7 +10848,7 @@
     </row>
     <row r="142" spans="1:6" outlineLevel="1">
       <c r="A142" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C142" s="29" t="s">
         <v>34</v>
@@ -10842,10 +10863,10 @@
     </row>
     <row r="143" spans="1:6" outlineLevel="1">
       <c r="A143" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C143" s="236" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>22</v>
@@ -10857,10 +10878,10 @@
     </row>
     <row r="144" spans="1:6" outlineLevel="1">
       <c r="A144" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C144" s="236" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>22</v>
@@ -10872,10 +10893,10 @@
     </row>
     <row r="145" spans="1:6" outlineLevel="1">
       <c r="A145" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C145" s="236" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>22</v>
@@ -10887,10 +10908,10 @@
     </row>
     <row r="146" spans="1:6" outlineLevel="1">
       <c r="A146" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C146" s="236" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>22</v>
@@ -10902,10 +10923,10 @@
     </row>
     <row r="147" spans="1:6" outlineLevel="1">
       <c r="A147" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C147" s="236" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>22</v>
@@ -10917,10 +10938,10 @@
     </row>
     <row r="148" spans="1:6" outlineLevel="1">
       <c r="A148" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C148" s="245" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>22</v>
@@ -10932,7 +10953,7 @@
     </row>
     <row r="149" spans="1:6" ht="15.75" outlineLevel="1">
       <c r="A149" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C149" s="44" t="s">
         <v>35</v>
@@ -10948,7 +10969,7 @@
     <row r="150" spans="1:6" outlineLevel="1">
       <c r="B150" s="127"/>
       <c r="C150" s="246" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D150" s="132" t="s">
         <v>22</v>
@@ -10961,19 +10982,19 @@
     <row r="151" spans="1:6" outlineLevel="1">
       <c r="B151" s="127"/>
       <c r="C151" s="247" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D151" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E151" s="220" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F151" s="65"/>
     </row>
     <row r="152" spans="1:6" ht="15.75" outlineLevel="1">
       <c r="A152" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C152" s="44" t="s">
         <v>36</v>
@@ -10982,31 +11003,31 @@
         <v>27</v>
       </c>
       <c r="E152" s="220" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F152" s="65"/>
     </row>
     <row r="153" spans="1:6" outlineLevel="1">
       <c r="C153" s="150" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D153" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E153" s="220" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F153" s="65"/>
     </row>
     <row r="154" spans="1:6" outlineLevel="1">
       <c r="C154" s="248" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D154" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E154" s="220" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F154" s="65"/>
     </row>
@@ -11019,13 +11040,13 @@
         <v>8</v>
       </c>
       <c r="E155" s="232" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F155" s="64"/>
     </row>
     <row r="156" spans="1:6" ht="30" outlineLevel="1">
       <c r="A156" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>96</v>
@@ -11034,7 +11055,7 @@
         <v>52</v>
       </c>
       <c r="E156" s="222" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F156" s="64"/>
     </row>
@@ -11047,16 +11068,16 @@
         <v>8</v>
       </c>
       <c r="E157" s="59" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F157" s="64"/>
     </row>
     <row r="158" spans="1:6" outlineLevel="1">
       <c r="A158" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>52</v>
@@ -11068,7 +11089,7 @@
     </row>
     <row r="159" spans="1:6" outlineLevel="1">
       <c r="C159" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>52</v>
@@ -11080,7 +11101,7 @@
     </row>
     <row r="160" spans="1:6" outlineLevel="1">
       <c r="C160" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>52</v>
@@ -11092,7 +11113,7 @@
     </row>
     <row r="161" spans="1:6" outlineLevel="1">
       <c r="C161" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>52</v>
@@ -11124,7 +11145,7 @@
     </row>
     <row r="164" spans="1:6" ht="21">
       <c r="A164" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B164" s="58"/>
       <c r="C164" s="58" t="s">
@@ -11134,16 +11155,16 @@
         <v>8</v>
       </c>
       <c r="E164" s="59" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F164" s="64"/>
     </row>
     <row r="165" spans="1:6" outlineLevel="1">
       <c r="A165" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>52</v>
@@ -11155,7 +11176,7 @@
     </row>
     <row r="166" spans="1:6" outlineLevel="1">
       <c r="C166" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>52</v>
@@ -11167,7 +11188,7 @@
     </row>
     <row r="167" spans="1:6" outlineLevel="1">
       <c r="C167" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>52</v>
@@ -11179,7 +11200,7 @@
     </row>
     <row r="168" spans="1:6" outlineLevel="1">
       <c r="C168" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>52</v>
@@ -11211,7 +11232,7 @@
     </row>
     <row r="171" spans="1:6" ht="21">
       <c r="A171" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B171" s="58"/>
       <c r="C171" s="58" t="s">
@@ -11221,16 +11242,16 @@
         <v>8</v>
       </c>
       <c r="E171" s="59" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F171" s="64"/>
     </row>
     <row r="172" spans="1:6" outlineLevel="1">
       <c r="A172" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>52</v>
@@ -11242,7 +11263,7 @@
     </row>
     <row r="173" spans="1:6" outlineLevel="1">
       <c r="C173" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>52</v>
@@ -11254,7 +11275,7 @@
     </row>
     <row r="174" spans="1:6" outlineLevel="1">
       <c r="C174" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>52</v>
@@ -11266,7 +11287,7 @@
     </row>
     <row r="175" spans="1:6" outlineLevel="1">
       <c r="C175" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>52</v>
@@ -11298,7 +11319,7 @@
     </row>
     <row r="178" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A178" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B178" s="58"/>
       <c r="C178" s="58" t="s">
@@ -11308,13 +11329,13 @@
         <v>8</v>
       </c>
       <c r="E178" s="59" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F178" s="64"/>
     </row>
     <row r="179" spans="1:11" outlineLevel="1">
       <c r="A179" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C179" s="49" t="s">
         <v>106</v>
@@ -11337,17 +11358,17 @@
         <v>8</v>
       </c>
       <c r="E180" s="231" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F180" s="64"/>
     </row>
     <row r="181" spans="1:11" s="11" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A181" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="5" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>27</v>
@@ -11371,17 +11392,17 @@
         <v>8</v>
       </c>
       <c r="E182" s="118" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F182" s="119"/>
     </row>
     <row r="183" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A183" s="87" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="29" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>27</v>
@@ -11399,13 +11420,13 @@
     <row r="184" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B184" s="12"/>
       <c r="C184" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D184" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E184" s="215" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F184" s="84"/>
       <c r="G184" s="85"/>
@@ -11417,13 +11438,13 @@
     <row r="185" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B185" s="12"/>
       <c r="C185" s="128" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D185" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="215" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F185" s="84"/>
       <c r="G185" s="85"/>
@@ -11434,7 +11455,7 @@
     </row>
     <row r="186" spans="1:11" s="194" customFormat="1" ht="21">
       <c r="A186" s="194" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B186" s="117"/>
       <c r="C186" s="117" t="s">
@@ -11444,17 +11465,17 @@
         <v>8</v>
       </c>
       <c r="E186" s="118" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F186" s="119"/>
     </row>
     <row r="187" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A187" s="87" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="29" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>27</v>
@@ -11472,13 +11493,13 @@
     <row r="188" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B188" s="127"/>
       <c r="C188" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D188" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E188" s="215" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F188" s="84"/>
       <c r="G188" s="85"/>
@@ -11490,13 +11511,13 @@
     <row r="189" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B189" s="12"/>
       <c r="C189" s="128" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D189" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E189" s="215" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F189" s="84"/>
       <c r="G189" s="85"/>
@@ -11507,7 +11528,7 @@
     </row>
     <row r="190" spans="1:11" s="194" customFormat="1" ht="21">
       <c r="A190" s="195" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B190" s="117"/>
       <c r="C190" s="117" t="s">
@@ -11517,17 +11538,17 @@
         <v>8</v>
       </c>
       <c r="E190" s="118" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F190" s="119"/>
     </row>
     <row r="191" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A191" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="134" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="D191" s="139" t="s">
         <v>27</v>
@@ -11545,13 +11566,13 @@
     <row r="192" spans="1:11" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B192" s="12"/>
       <c r="C192" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D192" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E192" s="215" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="F192" s="84"/>
       <c r="G192" s="3"/>
@@ -11563,13 +11584,13 @@
     <row r="193" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B193" s="12"/>
       <c r="C193" s="128" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D193" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E193" s="215" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="F193" s="84"/>
       <c r="G193" s="3"/>
@@ -11580,7 +11601,7 @@
     </row>
     <row r="194" spans="1:12" s="194" customFormat="1" ht="21">
       <c r="A194" s="195" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B194" s="117"/>
       <c r="C194" s="117" t="s">
@@ -11590,17 +11611,17 @@
         <v>8</v>
       </c>
       <c r="E194" s="118" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F194" s="119"/>
     </row>
     <row r="195" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A195" s="87" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="29" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>27</v>
@@ -11619,13 +11640,13 @@
     <row r="196" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B196" s="12"/>
       <c r="C196" s="131" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D196" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E196" s="215" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F196" s="84"/>
       <c r="G196" s="3"/>
@@ -11637,13 +11658,13 @@
     <row r="197" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B197" s="12"/>
       <c r="C197" s="130" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D197" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E197" s="215" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F197" s="84"/>
       <c r="G197" s="3"/>
@@ -11654,7 +11675,7 @@
     </row>
     <row r="198" spans="1:12" s="194" customFormat="1" ht="21">
       <c r="A198" s="195" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B198" s="117"/>
       <c r="C198" s="117" t="s">
@@ -11664,17 +11685,17 @@
         <v>8</v>
       </c>
       <c r="E198" s="118" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F198" s="119"/>
     </row>
     <row r="199" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A199" s="87" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="134" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>27</v>
@@ -11692,13 +11713,13 @@
     <row r="200" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B200" s="127"/>
       <c r="C200" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D200" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E200" s="215" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F200" s="84"/>
       <c r="G200" s="3"/>
@@ -11711,13 +11732,13 @@
     <row r="201" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B201" s="12"/>
       <c r="C201" s="128" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D201" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E201" s="215" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F201" s="84"/>
       <c r="G201" s="3"/>
@@ -11728,7 +11749,7 @@
     </row>
     <row r="202" spans="1:12" s="194" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A202" s="195" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B202" s="117"/>
       <c r="C202" s="117" t="s">
@@ -11738,17 +11759,17 @@
         <v>8</v>
       </c>
       <c r="E202" s="118" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F202" s="119"/>
     </row>
     <row r="203" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A203" s="87" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="134" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D203" s="139" t="s">
         <v>27</v>
@@ -11766,13 +11787,13 @@
     <row r="204" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B204" s="12"/>
       <c r="C204" s="141" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D204" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E204" s="215" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F204" s="84"/>
       <c r="G204" s="3"/>
@@ -11784,13 +11805,13 @@
     <row r="205" spans="1:12" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B205" s="12"/>
       <c r="C205" s="128" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D205" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E205" s="215" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F205" s="84"/>
       <c r="G205" s="3"/>
@@ -11801,17 +11822,17 @@
     </row>
     <row r="206" spans="1:12" ht="35.1" customHeight="1">
       <c r="A206" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B206" s="120"/>
       <c r="C206" s="122" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D206" s="123" t="s">
         <v>8</v>
       </c>
       <c r="E206" s="123" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F206" s="18"/>
       <c r="G206" s="3"/>
@@ -11829,7 +11850,7 @@
         <v>8</v>
       </c>
       <c r="E207" s="228" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F207" s="200"/>
       <c r="G207" s="201"/>
@@ -11840,7 +11861,7 @@
     </row>
     <row r="208" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A208" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B208" s="12"/>
       <c r="C208" s="26" t="s">
@@ -11861,11 +11882,11 @@
     </row>
     <row r="209" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A209" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="26" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>142</v>
@@ -11882,11 +11903,11 @@
     </row>
     <row r="210" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A210" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="26" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>142</v>
@@ -11910,7 +11931,7 @@
         <v>8</v>
       </c>
       <c r="E211" s="228" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F211" s="84"/>
       <c r="G211" s="80"/>
@@ -11935,7 +11956,7 @@
     </row>
     <row r="212" spans="1:26" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A212" s="106" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B212" s="12"/>
       <c r="C212" s="26" t="s">
@@ -11945,7 +11966,7 @@
         <v>27</v>
       </c>
       <c r="E212" s="226" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F212" s="84"/>
       <c r="G212" s="83"/>
@@ -11970,7 +11991,7 @@
     </row>
     <row r="213" spans="1:26" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A213" s="106" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B213" s="12"/>
       <c r="C213" s="26" t="s">
@@ -11980,7 +12001,7 @@
         <v>27</v>
       </c>
       <c r="E213" s="226" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F213" s="84"/>
       <c r="G213" s="83"/>
@@ -12005,7 +12026,7 @@
     </row>
     <row r="214" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A214" s="106" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B214" s="12"/>
       <c r="C214" s="26" t="s">
@@ -12015,7 +12036,7 @@
         <v>27</v>
       </c>
       <c r="E214" s="226" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F214" s="84"/>
       <c r="G214" s="83"/>
@@ -12040,7 +12061,7 @@
     </row>
     <row r="215" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A215" s="106" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B215" s="12"/>
       <c r="C215" s="26" t="s">
@@ -12050,7 +12071,7 @@
         <v>27</v>
       </c>
       <c r="E215" s="226" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F215" s="84"/>
       <c r="G215" s="83"/>
@@ -12075,7 +12096,7 @@
     </row>
     <row r="216" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A216" s="106" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B216" s="12"/>
       <c r="C216" s="26" t="s">
@@ -12085,7 +12106,7 @@
         <v>27</v>
       </c>
       <c r="E216" s="226" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F216" s="84"/>
       <c r="G216" s="83"/>
@@ -12110,7 +12131,7 @@
     </row>
     <row r="217" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A217" s="106" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B217" s="12"/>
       <c r="C217" s="26" t="s">
@@ -12120,7 +12141,7 @@
         <v>150</v>
       </c>
       <c r="E217" s="226" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F217" s="84"/>
       <c r="G217" s="83"/>
@@ -12145,7 +12166,7 @@
     </row>
     <row r="218" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A218" s="106" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B218" s="12"/>
       <c r="C218" s="26" t="s">
@@ -12155,7 +12176,7 @@
         <v>27</v>
       </c>
       <c r="E218" s="226" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F218" s="84"/>
       <c r="G218" s="83"/>
@@ -12180,7 +12201,7 @@
     </row>
     <row r="219" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A219" s="106" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="26" t="s">
@@ -12190,7 +12211,7 @@
         <v>27</v>
       </c>
       <c r="E219" s="226" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F219" s="84"/>
       <c r="G219" s="83"/>
@@ -12215,7 +12236,7 @@
     </row>
     <row r="220" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A220" s="106" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B220" s="12"/>
       <c r="C220" s="26" t="s">
@@ -12225,7 +12246,7 @@
         <v>27</v>
       </c>
       <c r="E220" s="226" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F220" s="84"/>
       <c r="G220" s="83"/>
@@ -12250,7 +12271,7 @@
     </row>
     <row r="221" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A221" s="106" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B221" s="12"/>
       <c r="C221" s="26" t="s">
@@ -12285,7 +12306,7 @@
     </row>
     <row r="222" spans="1:26" s="8" customFormat="1" outlineLevel="1">
       <c r="A222" s="106" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="26" t="s">
@@ -12321,13 +12342,13 @@
     <row r="223" spans="1:26" s="198" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B223" s="199"/>
       <c r="C223" s="204" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="D223" s="228" t="s">
         <v>8</v>
       </c>
       <c r="E223" s="228" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F223" s="200"/>
       <c r="G223" s="201"/>
@@ -12338,7 +12359,7 @@
     </row>
     <row r="224" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A224" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="26" t="s">
@@ -12359,7 +12380,7 @@
     </row>
     <row r="225" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A225" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="26" t="s">
@@ -12380,11 +12401,11 @@
     </row>
     <row r="226" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A226" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="26" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>32</v>
@@ -12408,46 +12429,46 @@
         <v>8</v>
       </c>
       <c r="E227" s="126" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F227" s="18"/>
     </row>
     <row r="228" spans="1:26" ht="21">
       <c r="B228" s="206"/>
       <c r="C228" s="207" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D228" s="205" t="s">
         <v>8</v>
       </c>
       <c r="E228" s="205" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F228" s="64"/>
     </row>
     <row r="229" spans="1:26" ht="30" outlineLevel="1">
       <c r="A229" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="26" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E229" s="223" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="F229" s="64"/>
     </row>
     <row r="230" spans="1:26" outlineLevel="1">
       <c r="A230" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="26" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>27</v>
@@ -12459,11 +12480,11 @@
     </row>
     <row r="231" spans="1:26" outlineLevel="1">
       <c r="A231" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="26" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>27</v>
@@ -12475,11 +12496,11 @@
     </row>
     <row r="232" spans="1:26" outlineLevel="1">
       <c r="A232" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="26" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>27</v>
@@ -12498,13 +12519,13 @@
         <v>8</v>
       </c>
       <c r="E233" s="205" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F233" s="64"/>
     </row>
     <row r="234" spans="1:26" outlineLevel="1">
       <c r="A234" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="26" t="s">
@@ -12520,7 +12541,7 @@
     </row>
     <row r="235" spans="1:26" outlineLevel="1">
       <c r="A235" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="26" t="s">
@@ -12536,7 +12557,7 @@
     </row>
     <row r="236" spans="1:26" outlineLevel="1">
       <c r="A236" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B236" s="7"/>
       <c r="C236" s="26" t="s">
@@ -12552,7 +12573,7 @@
     </row>
     <row r="237" spans="1:26" outlineLevel="1">
       <c r="A237" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B237" s="7"/>
       <c r="C237" s="26" t="s">
@@ -12568,7 +12589,7 @@
     </row>
     <row r="238" spans="1:26" outlineLevel="1">
       <c r="A238" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="26" t="s">
@@ -12585,13 +12606,13 @@
     <row r="239" spans="1:26" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="B239" s="88"/>
       <c r="C239" s="124" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="D239" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E239" s="125" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F239" s="84"/>
       <c r="G239" s="85"/>
@@ -12616,11 +12637,11 @@
     </row>
     <row r="240" spans="1:26" s="87" customFormat="1" outlineLevel="1">
       <c r="A240" s="87" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B240" s="12"/>
       <c r="C240" s="26" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D240" s="86" t="s">
         <v>27</v>
@@ -12637,7 +12658,7 @@
     </row>
     <row r="241" spans="1:11" s="87" customFormat="1" outlineLevel="1">
       <c r="A241" s="87" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B241" s="12"/>
       <c r="C241" s="150" t="s">
@@ -12658,7 +12679,7 @@
     </row>
     <row r="242" spans="1:11" s="87" customFormat="1" outlineLevel="1">
       <c r="A242" s="87" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B242" s="12"/>
       <c r="C242" s="150" t="s">
@@ -12679,11 +12700,11 @@
     </row>
     <row r="243" spans="1:11" s="87" customFormat="1" outlineLevel="1">
       <c r="A243" s="87" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B243" s="12"/>
       <c r="C243" s="26" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D243" s="86" t="s">
         <v>32</v>
@@ -12700,11 +12721,11 @@
     </row>
     <row r="244" spans="1:11" s="87" customFormat="1" outlineLevel="1">
       <c r="A244" s="87" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="26" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D244" s="86" t="s">
         <v>32</v>
@@ -12721,14 +12742,14 @@
     </row>
     <row r="245" spans="1:11" s="87" customFormat="1" outlineLevel="1">
       <c r="A245" s="87" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="26" t="s">
+        <v>830</v>
+      </c>
+      <c r="D245" s="86" t="s">
         <v>836</v>
-      </c>
-      <c r="D245" s="86" t="s">
-        <v>842</v>
       </c>
       <c r="E245" s="223" t="s">
         <v>99</v>
@@ -12839,7 +12860,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -12858,27 +12879,27 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1">
       <c r="A1" s="98" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D1" s="101" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E1" s="102" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G1" s="99" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="78" customHeight="1">
       <c r="B2" s="270" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C2" s="270"/>
       <c r="D2" s="270"/>
@@ -12898,14 +12919,14 @@
     </row>
     <row r="4" spans="1:8" ht="21">
       <c r="A4" s="153" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B4" s="188"/>
       <c r="C4" s="192" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="D4" s="190" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E4" s="273"/>
       <c r="F4" s="273"/>
@@ -12914,14 +12935,14 @@
     </row>
     <row r="5" spans="1:8" ht="21">
       <c r="A5" s="153" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B5" s="189"/>
       <c r="C5" s="193" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D5" s="191" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E5" s="274"/>
       <c r="F5" s="274"/>
@@ -12969,7 +12990,7 @@
     </row>
     <row r="9" spans="1:8" outlineLevel="1">
       <c r="A9" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>135</v>
@@ -12986,7 +13007,7 @@
     </row>
     <row r="10" spans="1:8" outlineLevel="1">
       <c r="A10" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>136</v>
@@ -13003,7 +13024,7 @@
     </row>
     <row r="11" spans="1:8" outlineLevel="1">
       <c r="A11" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>137</v>
@@ -13020,7 +13041,7 @@
     </row>
     <row r="12" spans="1:8" outlineLevel="1">
       <c r="A12" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>138</v>
@@ -13037,7 +13058,7 @@
     </row>
     <row r="13" spans="1:8" outlineLevel="1">
       <c r="A13" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>103</v>
@@ -13055,7 +13076,7 @@
     <row r="14" spans="1:8" outlineLevel="1">
       <c r="A14" s="153"/>
       <c r="C14" s="32" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D14" s="142"/>
       <c r="E14" s="143"/>
@@ -13065,13 +13086,13 @@
     </row>
     <row r="15" spans="1:8" outlineLevel="1">
       <c r="A15" s="153" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>99</v>
@@ -13082,13 +13103,13 @@
     </row>
     <row r="16" spans="1:8" outlineLevel="1">
       <c r="A16" s="153" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>99</v>
@@ -13099,13 +13120,13 @@
     </row>
     <row r="17" spans="1:8" outlineLevel="1">
       <c r="A17" s="153" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>99</v>
@@ -13116,13 +13137,13 @@
     </row>
     <row r="18" spans="1:8" outlineLevel="1">
       <c r="A18" s="153" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>99</v>
@@ -13133,13 +13154,13 @@
     </row>
     <row r="19" spans="1:8" outlineLevel="1">
       <c r="A19" s="153" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>99</v>
@@ -13150,13 +13171,13 @@
     </row>
     <row r="20" spans="1:8" outlineLevel="1">
       <c r="A20" s="153" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>99</v>
@@ -13186,7 +13207,7 @@
     </row>
     <row r="22" spans="1:8" outlineLevel="1">
       <c r="C22" s="32" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="D22" s="142"/>
       <c r="E22" s="143"/>
@@ -13196,17 +13217,17 @@
     </row>
     <row r="23" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A23" s="254" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="19" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -13214,17 +13235,17 @@
     </row>
     <row r="24" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A24" s="254" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="19" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -13232,7 +13253,7 @@
     </row>
     <row r="25" spans="1:8" outlineLevel="1">
       <c r="A25" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>98</v>
@@ -13249,10 +13270,10 @@
     </row>
     <row r="26" spans="1:8" outlineLevel="1">
       <c r="A26" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>22</v>
@@ -13266,11 +13287,11 @@
     </row>
     <row r="27" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A27" s="252" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="19" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>28</v>
@@ -13284,14 +13305,14 @@
     </row>
     <row r="28" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A28" s="252" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="19" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="E28" s="108" t="s">
         <v>99</v>
@@ -13303,7 +13324,7 @@
     <row r="29" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="B29" s="12"/>
       <c r="C29" s="32" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="22"/>
@@ -13313,17 +13334,17 @@
     </row>
     <row r="30" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A30" s="252" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="19" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="3"/>
@@ -13331,17 +13352,17 @@
     </row>
     <row r="31" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A31" s="252" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="19" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="3"/>
@@ -13349,7 +13370,7 @@
     </row>
     <row r="32" spans="1:8" outlineLevel="1">
       <c r="A32" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>26</v>
@@ -13376,10 +13397,10 @@
     </row>
     <row r="34" spans="1:8" outlineLevel="1">
       <c r="A34" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>100</v>
@@ -13393,10 +13414,10 @@
     </row>
     <row r="35" spans="1:8" outlineLevel="1">
       <c r="A35" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>100</v>
@@ -13410,10 +13431,10 @@
     </row>
     <row r="36" spans="1:8" outlineLevel="1">
       <c r="A36" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>100</v>
@@ -13427,10 +13448,10 @@
     </row>
     <row r="37" spans="1:8" outlineLevel="1">
       <c r="A37" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>100</v>
@@ -13444,7 +13465,7 @@
     </row>
     <row r="38" spans="1:8" outlineLevel="1">
       <c r="A38" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>130</v>
@@ -13461,7 +13482,7 @@
     </row>
     <row r="39" spans="1:8" outlineLevel="1">
       <c r="A39" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>131</v>
@@ -13478,7 +13499,7 @@
     </row>
     <row r="40" spans="1:8" outlineLevel="1">
       <c r="A40" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>132</v>
@@ -13495,11 +13516,11 @@
     </row>
     <row r="41" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A41" s="252" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="26" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>28</v>
@@ -13513,7 +13534,7 @@
     </row>
     <row r="42" spans="1:8" outlineLevel="1">
       <c r="A42" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>117</v>
@@ -13522,7 +13543,7 @@
         <v>21</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -13530,7 +13551,7 @@
     </row>
     <row r="43" spans="1:8" outlineLevel="1">
       <c r="A43" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>118</v>
@@ -13539,7 +13560,7 @@
         <v>21</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -13566,7 +13587,7 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" outlineLevel="1">
       <c r="A45" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="37" t="s">
@@ -13595,10 +13616,10 @@
     </row>
     <row r="47" spans="1:8" outlineLevel="1">
       <c r="A47" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C47" s="151" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>22</v>
@@ -13612,10 +13633,10 @@
     </row>
     <row r="48" spans="1:8" outlineLevel="1">
       <c r="A48" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C48" s="151" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>22</v>
@@ -13629,10 +13650,10 @@
     </row>
     <row r="49" spans="1:8" outlineLevel="1">
       <c r="A49" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C49" s="151" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>22</v>
@@ -13646,10 +13667,10 @@
     </row>
     <row r="50" spans="1:8" outlineLevel="1">
       <c r="A50" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="151" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>22</v>
@@ -13663,10 +13684,10 @@
     </row>
     <row r="51" spans="1:8" outlineLevel="1">
       <c r="A51" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C51" s="151" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>22</v>
@@ -13680,10 +13701,10 @@
     </row>
     <row r="52" spans="1:8" outlineLevel="1">
       <c r="A52" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C52" s="151" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>22</v>
@@ -13697,10 +13718,10 @@
     </row>
     <row r="53" spans="1:8" outlineLevel="1">
       <c r="A53" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C53" s="151" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>22</v>
@@ -13725,7 +13746,7 @@
     </row>
     <row r="55" spans="1:8" outlineLevel="1">
       <c r="A55" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C55" s="152" t="s">
         <v>30</v>
@@ -13742,7 +13763,7 @@
     </row>
     <row r="56" spans="1:8" outlineLevel="1">
       <c r="A56" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C56" s="152" t="s">
         <v>9</v>
@@ -13759,7 +13780,7 @@
     </row>
     <row r="57" spans="1:8" outlineLevel="1">
       <c r="A57" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C57" s="152" t="s">
         <v>104</v>
@@ -13795,7 +13816,7 @@
     </row>
     <row r="59" spans="1:8" outlineLevel="1">
       <c r="C59" s="41" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="108"/>
@@ -13805,11 +13826,11 @@
     </row>
     <row r="60" spans="1:8" s="252" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A60" s="252" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="46" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>31</v>
@@ -13824,7 +13845,7 @@
     <row r="61" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="B61" s="12"/>
       <c r="C61" s="41" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="108"/>
@@ -13834,11 +13855,11 @@
     </row>
     <row r="62" spans="1:8" s="252" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A62" s="252" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="46" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>31</v>
@@ -13852,11 +13873,11 @@
     </row>
     <row r="63" spans="1:8" s="252" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A63" s="252" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="46" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>31</v>
@@ -13870,11 +13891,11 @@
     </row>
     <row r="64" spans="1:8" s="252" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A64" s="252" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="46" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>31</v>
@@ -13926,10 +13947,10 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" outlineLevel="1">
       <c r="A67" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>37</v>
@@ -13943,7 +13964,7 @@
     </row>
     <row r="68" spans="1:8" outlineLevel="1">
       <c r="A68" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C68" s="46" t="s">
         <v>45</v>
@@ -13960,7 +13981,7 @@
     </row>
     <row r="69" spans="1:8" outlineLevel="1">
       <c r="A69" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C69" s="46" t="s">
         <v>38</v>
@@ -13977,10 +13998,10 @@
     </row>
     <row r="70" spans="1:8" outlineLevel="1">
       <c r="A70" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C70" s="46" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>22</v>
@@ -13994,7 +14015,7 @@
     </row>
     <row r="71" spans="1:8" outlineLevel="1">
       <c r="A71" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C71" s="46" t="s">
         <v>43</v>
@@ -14011,7 +14032,7 @@
     </row>
     <row r="72" spans="1:8" outlineLevel="1">
       <c r="A72" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C72" s="46" t="s">
         <v>41</v>
@@ -14028,7 +14049,7 @@
     </row>
     <row r="73" spans="1:8" outlineLevel="1">
       <c r="A73" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C73" s="46" t="s">
         <v>42</v>
@@ -14045,7 +14066,7 @@
     </row>
     <row r="74" spans="1:8" outlineLevel="1">
       <c r="A74" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C74" s="46" t="s">
         <v>40</v>
@@ -14062,7 +14083,7 @@
     </row>
     <row r="75" spans="1:8" outlineLevel="1">
       <c r="A75" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C75" s="46" t="s">
         <v>44</v>
@@ -14079,7 +14100,7 @@
     </row>
     <row r="76" spans="1:8" outlineLevel="1">
       <c r="A76" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C76" s="46" t="s">
         <v>39</v>
@@ -14096,10 +14117,10 @@
     </row>
     <row r="77" spans="1:8" outlineLevel="1">
       <c r="A77" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>22</v>
@@ -14132,10 +14153,10 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" outlineLevel="1">
       <c r="A79" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C79" s="44" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>46</v>
@@ -14149,10 +14170,10 @@
     </row>
     <row r="80" spans="1:8" outlineLevel="1">
       <c r="A80" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C80" s="238" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D80" s="39" t="s">
         <v>22</v>
@@ -14166,10 +14187,10 @@
     </row>
     <row r="81" spans="1:8" outlineLevel="1">
       <c r="A81" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C81" s="238" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>22</v>
@@ -14183,10 +14204,10 @@
     </row>
     <row r="82" spans="1:8" outlineLevel="1">
       <c r="A82" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C82" s="46" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>22</v>
@@ -14200,10 +14221,10 @@
     </row>
     <row r="83" spans="1:8" outlineLevel="1">
       <c r="A83" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C83" s="238" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>22</v>
@@ -14217,10 +14238,10 @@
     </row>
     <row r="84" spans="1:8" outlineLevel="1">
       <c r="A84" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D84" s="39" t="s">
         <v>22</v>
@@ -14234,10 +14255,10 @@
     </row>
     <row r="85" spans="1:8" outlineLevel="1">
       <c r="A85" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D85" s="39" t="s">
         <v>22</v>
@@ -14251,10 +14272,10 @@
     </row>
     <row r="86" spans="1:8" outlineLevel="1">
       <c r="A86" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C86" s="46" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D86" s="39" t="s">
         <v>22</v>
@@ -14287,10 +14308,10 @@
     </row>
     <row r="88" spans="1:8" outlineLevel="1">
       <c r="A88" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>47</v>
@@ -14304,7 +14325,7 @@
     </row>
     <row r="89" spans="1:8" outlineLevel="1">
       <c r="A89" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C89" s="46" t="s">
         <v>51</v>
@@ -14321,7 +14342,7 @@
     </row>
     <row r="90" spans="1:8" outlineLevel="1">
       <c r="A90" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C90" s="46" t="s">
         <v>50</v>
@@ -14338,7 +14359,7 @@
     </row>
     <row r="91" spans="1:8" outlineLevel="1">
       <c r="A91" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C91" s="46" t="s">
         <v>48</v>
@@ -14355,7 +14376,7 @@
     </row>
     <row r="92" spans="1:8" outlineLevel="1">
       <c r="A92" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C92" s="46" t="s">
         <v>49</v>
@@ -14373,7 +14394,7 @@
     <row r="93" spans="1:8" ht="21">
       <c r="B93" s="70"/>
       <c r="C93" s="71" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="D93" s="72" t="s">
         <v>8</v>
@@ -14391,7 +14412,7 @@
     </row>
     <row r="94" spans="1:8" outlineLevel="1">
       <c r="A94" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C94" s="30" t="s">
         <v>107</v>
@@ -14408,7 +14429,7 @@
     </row>
     <row r="95" spans="1:8" outlineLevel="1">
       <c r="A95" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C95" s="46" t="s">
         <v>139</v>
@@ -14425,7 +14446,7 @@
     </row>
     <row r="96" spans="1:8" outlineLevel="1">
       <c r="A96" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C96" s="30" t="s">
         <v>109</v>
@@ -14442,7 +14463,7 @@
     </row>
     <row r="97" spans="1:8" outlineLevel="1">
       <c r="A97" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C97" s="46" t="s">
         <v>112</v>
@@ -14459,7 +14480,7 @@
     </row>
     <row r="98" spans="1:8" outlineLevel="1">
       <c r="A98" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C98" s="46" t="s">
         <v>111</v>
@@ -14476,7 +14497,7 @@
     </row>
     <row r="99" spans="1:8" outlineLevel="1">
       <c r="A99" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C99" s="46" t="s">
         <v>113</v>
@@ -14493,14 +14514,14 @@
     </row>
     <row r="100" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A100" s="252" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="30" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="E100" s="109" t="s">
         <v>99</v>
@@ -14511,11 +14532,11 @@
     </row>
     <row r="101" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A101" s="252" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="46" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="D101" s="39" t="s">
         <v>22</v>
@@ -14529,11 +14550,11 @@
     </row>
     <row r="102" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A102" s="252" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="46" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="D102" s="39" t="s">
         <v>22</v>
@@ -14547,11 +14568,11 @@
     </row>
     <row r="103" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A103" s="252" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="46" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D103" s="39" t="s">
         <v>22</v>
@@ -14566,7 +14587,7 @@
     <row r="104" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="B104" s="12"/>
       <c r="C104" s="30" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="109"/>
@@ -14576,11 +14597,11 @@
     </row>
     <row r="105" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A105" s="252" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="46" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>27</v>
@@ -14594,11 +14615,11 @@
     </row>
     <row r="106" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A106" s="252" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="46" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>27</v>
@@ -14612,11 +14633,11 @@
     </row>
     <row r="107" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A107" s="252" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="46" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>27</v>
@@ -14630,11 +14651,11 @@
     </row>
     <row r="108" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A108" s="252" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="46" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>27</v>
@@ -14648,11 +14669,11 @@
     </row>
     <row r="109" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A109" s="252" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="46" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>27</v>
@@ -14666,11 +14687,11 @@
     </row>
     <row r="110" spans="1:8" s="252" customFormat="1" outlineLevel="1">
       <c r="A110" s="252" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="46" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>27</v>
@@ -14703,7 +14724,7 @@
     </row>
     <row r="112" spans="1:8" outlineLevel="1">
       <c r="A112" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C112" s="29" t="s">
         <v>33</v>
@@ -14720,10 +14741,10 @@
     </row>
     <row r="113" spans="1:8" outlineLevel="1">
       <c r="A113" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C113" s="236" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D113" s="20" t="s">
         <v>22</v>
@@ -14737,10 +14758,10 @@
     </row>
     <row r="114" spans="1:8" outlineLevel="1">
       <c r="A114" s="250" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C114" s="236" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D114" s="20" t="s">
         <v>22</v>
@@ -14754,10 +14775,10 @@
     </row>
     <row r="115" spans="1:8" outlineLevel="1">
       <c r="A115" s="250" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C115" s="236" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D115" s="20" t="s">
         <v>22</v>
@@ -14771,10 +14792,10 @@
     </row>
     <row r="116" spans="1:8" outlineLevel="1">
       <c r="A116" s="250" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C116" s="236" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D116" s="20" t="s">
         <v>22</v>
@@ -14788,7 +14809,7 @@
     </row>
     <row r="117" spans="1:8" outlineLevel="1">
       <c r="A117" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C117" s="29" t="s">
         <v>34</v>
@@ -14805,10 +14826,10 @@
     </row>
     <row r="118" spans="1:8" outlineLevel="1">
       <c r="A118" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C118" s="236" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D118" s="20" t="s">
         <v>22</v>
@@ -14822,10 +14843,10 @@
     </row>
     <row r="119" spans="1:8" outlineLevel="1">
       <c r="A119" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C119" s="236" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D119" s="20" t="s">
         <v>22</v>
@@ -14839,10 +14860,10 @@
     </row>
     <row r="120" spans="1:8" outlineLevel="1">
       <c r="A120" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C120" s="236" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D120" s="20" t="s">
         <v>22</v>
@@ -14856,10 +14877,10 @@
     </row>
     <row r="121" spans="1:8" outlineLevel="1">
       <c r="A121" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C121" s="236" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D121" s="20" t="s">
         <v>22</v>
@@ -14873,10 +14894,10 @@
     </row>
     <row r="122" spans="1:8" outlineLevel="1">
       <c r="A122" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C122" s="236" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D122" s="20" t="s">
         <v>22</v>
@@ -14890,10 +14911,10 @@
     </row>
     <row r="123" spans="1:8" outlineLevel="1">
       <c r="A123" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C123" s="236" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D123" s="20" t="s">
         <v>22</v>
@@ -14907,7 +14928,7 @@
     </row>
     <row r="124" spans="1:8" ht="15.75" outlineLevel="1">
       <c r="A124" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C124" s="104" t="s">
         <v>35</v>
@@ -14925,7 +14946,7 @@
     <row r="125" spans="1:8" outlineLevel="1">
       <c r="B125" s="127"/>
       <c r="C125" s="133" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D125" s="132" t="s">
         <v>22</v>
@@ -14940,7 +14961,7 @@
     <row r="126" spans="1:8" outlineLevel="1">
       <c r="B126" s="127"/>
       <c r="C126" s="133" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D126" s="20" t="s">
         <v>22</v>
@@ -14954,7 +14975,7 @@
     </row>
     <row r="127" spans="1:8" ht="15.75" outlineLevel="1">
       <c r="A127" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C127" s="237" t="s">
         <v>36</v>
@@ -14972,7 +14993,7 @@
     <row r="128" spans="1:8" outlineLevel="1">
       <c r="B128" s="127"/>
       <c r="C128" s="150" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D128" s="132" t="s">
         <v>22</v>
@@ -14986,7 +15007,7 @@
     </row>
     <row r="129" spans="1:8" outlineLevel="1">
       <c r="C129" s="128" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D129" s="20" t="s">
         <v>22</v>
@@ -15000,7 +15021,7 @@
     </row>
     <row r="130" spans="1:8" ht="35.1" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B130" s="56"/>
       <c r="C130" s="57" t="s">
@@ -15022,7 +15043,7 @@
     </row>
     <row r="131" spans="1:8" ht="30" outlineLevel="1">
       <c r="A131" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>96</v>
@@ -15058,10 +15079,10 @@
     </row>
     <row r="133" spans="1:8" outlineLevel="1">
       <c r="A133" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>52</v>
@@ -15075,7 +15096,7 @@
     </row>
     <row r="134" spans="1:8" outlineLevel="1">
       <c r="C134" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>52</v>
@@ -15089,7 +15110,7 @@
     </row>
     <row r="135" spans="1:8" outlineLevel="1">
       <c r="C135" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>52</v>
@@ -15103,7 +15124,7 @@
     </row>
     <row r="136" spans="1:8" outlineLevel="1">
       <c r="C136" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>52</v>
@@ -15145,7 +15166,7 @@
     </row>
     <row r="139" spans="1:8" ht="21">
       <c r="A139" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B139" s="58"/>
       <c r="C139" s="58" t="s">
@@ -15167,10 +15188,10 @@
     </row>
     <row r="140" spans="1:8" outlineLevel="1">
       <c r="A140" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>52</v>
@@ -15184,7 +15205,7 @@
     </row>
     <row r="141" spans="1:8" outlineLevel="1">
       <c r="C141" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>52</v>
@@ -15198,7 +15219,7 @@
     </row>
     <row r="142" spans="1:8" outlineLevel="1">
       <c r="C142" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>52</v>
@@ -15212,7 +15233,7 @@
     </row>
     <row r="143" spans="1:8" outlineLevel="1">
       <c r="C143" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>52</v>
@@ -15254,7 +15275,7 @@
     </row>
     <row r="146" spans="1:13" ht="21">
       <c r="A146" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B146" s="58"/>
       <c r="C146" s="58" t="s">
@@ -15276,10 +15297,10 @@
     </row>
     <row r="147" spans="1:13" outlineLevel="1">
       <c r="A147" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>52</v>
@@ -15293,7 +15314,7 @@
     </row>
     <row r="148" spans="1:13" outlineLevel="1">
       <c r="C148" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>52</v>
@@ -15307,7 +15328,7 @@
     </row>
     <row r="149" spans="1:13" outlineLevel="1">
       <c r="C149" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>52</v>
@@ -15321,7 +15342,7 @@
     </row>
     <row r="150" spans="1:13" outlineLevel="1">
       <c r="C150" s="150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>52</v>
@@ -15363,7 +15384,7 @@
     </row>
     <row r="153" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A153" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B153" s="58"/>
       <c r="C153" s="58" t="s">
@@ -15385,7 +15406,7 @@
     </row>
     <row r="154" spans="1:13" outlineLevel="1">
       <c r="A154" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C154" s="49" t="s">
         <v>106</v>
@@ -15422,11 +15443,11 @@
     </row>
     <row r="156" spans="1:13" s="11" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A156" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="5" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>27</v>
@@ -15464,11 +15485,11 @@
     </row>
     <row r="158" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A158" s="87" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B158" s="12"/>
       <c r="C158" s="29" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>27</v>
@@ -15488,7 +15509,7 @@
     <row r="159" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B159" s="12"/>
       <c r="C159" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D159" s="39" t="s">
         <v>22</v>
@@ -15508,7 +15529,7 @@
     <row r="160" spans="1:13" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B160" s="12"/>
       <c r="C160" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D160" s="39" t="s">
         <v>22</v>
@@ -15527,7 +15548,7 @@
     </row>
     <row r="161" spans="1:14" s="194" customFormat="1" ht="21">
       <c r="A161" s="194" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B161" s="117"/>
       <c r="C161" s="117" t="s">
@@ -15549,11 +15570,11 @@
     </row>
     <row r="162" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A162" s="87" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B162" s="12"/>
       <c r="C162" s="29" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>27</v>
@@ -15573,7 +15594,7 @@
     <row r="163" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B163" s="127"/>
       <c r="C163" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D163" s="39" t="s">
         <v>22</v>
@@ -15593,7 +15614,7 @@
     <row r="164" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B164" s="12"/>
       <c r="C164" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D164" s="39" t="s">
         <v>22</v>
@@ -15612,7 +15633,7 @@
     </row>
     <row r="165" spans="1:14" s="194" customFormat="1" ht="21">
       <c r="A165" s="195" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B165" s="117"/>
       <c r="C165" s="117" t="s">
@@ -15634,11 +15655,11 @@
     </row>
     <row r="166" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A166" s="87" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="134" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="D166" s="139" t="s">
         <v>27</v>
@@ -15658,7 +15679,7 @@
     <row r="167" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B167" s="12"/>
       <c r="C167" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D167" s="39" t="s">
         <v>22</v>
@@ -15678,7 +15699,7 @@
     <row r="168" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B168" s="12"/>
       <c r="C168" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D168" s="39" t="s">
         <v>22</v>
@@ -15697,7 +15718,7 @@
     </row>
     <row r="169" spans="1:14" s="194" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A169" s="195" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B169" s="117"/>
       <c r="C169" s="117" t="s">
@@ -15719,11 +15740,11 @@
     </row>
     <row r="170" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A170" s="87" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B170" s="12"/>
       <c r="C170" s="29" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="D170" s="12" t="s">
         <v>27</v>
@@ -15744,7 +15765,7 @@
     <row r="171" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B171" s="12"/>
       <c r="C171" s="131" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D171" s="39" t="s">
         <v>22</v>
@@ -15764,7 +15785,7 @@
     <row r="172" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B172" s="12"/>
       <c r="C172" s="131" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D172" s="39" t="s">
         <v>22</v>
@@ -15783,7 +15804,7 @@
     </row>
     <row r="173" spans="1:14" s="194" customFormat="1" ht="21">
       <c r="A173" s="195" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B173" s="117"/>
       <c r="C173" s="117" t="s">
@@ -15805,11 +15826,11 @@
     </row>
     <row r="174" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A174" s="87" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B174" s="12"/>
       <c r="C174" s="134" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>27</v>
@@ -15829,7 +15850,7 @@
     <row r="175" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B175" s="127"/>
       <c r="C175" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D175" s="39" t="s">
         <v>22</v>
@@ -15850,7 +15871,7 @@
     <row r="176" spans="1:14" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B176" s="12"/>
       <c r="C176" s="129" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D176" s="39" t="s">
         <v>22</v>
@@ -15869,7 +15890,7 @@
     </row>
     <row r="177" spans="1:28" s="194" customFormat="1" ht="21">
       <c r="A177" s="195" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B177" s="117"/>
       <c r="C177" s="117" t="s">
@@ -15891,11 +15912,11 @@
     </row>
     <row r="178" spans="1:28" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A178" s="87" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B178" s="12"/>
       <c r="C178" s="134" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="D178" s="139" t="s">
         <v>27</v>
@@ -15915,7 +15936,7 @@
     <row r="179" spans="1:28" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B179" s="12"/>
       <c r="C179" s="141" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D179" s="39" t="s">
         <v>22</v>
@@ -15935,7 +15956,7 @@
     <row r="180" spans="1:28" s="87" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="B180" s="12"/>
       <c r="C180" s="141" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D180" s="39" t="s">
         <v>22</v>
@@ -15954,11 +15975,11 @@
     </row>
     <row r="181" spans="1:28" s="194" customFormat="1" ht="21">
       <c r="A181" s="195" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B181" s="117"/>
       <c r="C181" s="117" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="D181" s="118" t="s">
         <v>8</v>
@@ -15976,11 +15997,11 @@
     </row>
     <row r="182" spans="1:28" s="253" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A182" s="253" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B182" s="12"/>
       <c r="C182" s="134" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="D182" s="139" t="s">
         <v>27</v>
@@ -16001,7 +16022,7 @@
       <c r="A183" s="11"/>
       <c r="B183" s="120"/>
       <c r="C183" s="122" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D183" s="123" t="s">
         <v>8</v>
@@ -16048,7 +16069,7 @@
     </row>
     <row r="185" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A185" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B185" s="12"/>
       <c r="C185" s="26" t="s">
@@ -16071,11 +16092,11 @@
     </row>
     <row r="186" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A186" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B186" s="12"/>
       <c r="C186" s="26" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>142</v>
@@ -16094,11 +16115,11 @@
     </row>
     <row r="187" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A187" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="26" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>142</v>
@@ -16155,7 +16176,7 @@
     </row>
     <row r="189" spans="1:28" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A189" s="106" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B189" s="12"/>
       <c r="C189" s="26" t="s">
@@ -16192,7 +16213,7 @@
     </row>
     <row r="190" spans="1:28" s="8" customFormat="1" ht="14.1" customHeight="1" outlineLevel="1">
       <c r="A190" s="106" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B190" s="12"/>
       <c r="C190" s="26" t="s">
@@ -16229,7 +16250,7 @@
     </row>
     <row r="191" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A191" s="106" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="26" t="s">
@@ -16266,7 +16287,7 @@
     </row>
     <row r="192" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A192" s="106" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B192" s="12"/>
       <c r="C192" s="26" t="s">
@@ -16303,7 +16324,7 @@
     </row>
     <row r="193" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A193" s="106" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B193" s="12"/>
       <c r="C193" s="26" t="s">
@@ -16340,7 +16361,7 @@
     </row>
     <row r="194" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A194" s="106" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B194" s="12"/>
       <c r="C194" s="26" t="s">
@@ -16377,7 +16398,7 @@
     </row>
     <row r="195" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A195" s="106" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="26" t="s">
@@ -16414,7 +16435,7 @@
     </row>
     <row r="196" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A196" s="106" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B196" s="12"/>
       <c r="C196" s="26" t="s">
@@ -16451,7 +16472,7 @@
     </row>
     <row r="197" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A197" s="106" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B197" s="12"/>
       <c r="C197" s="26" t="s">
@@ -16488,7 +16509,7 @@
     </row>
     <row r="198" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A198" s="106" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B198" s="12"/>
       <c r="C198" s="26" t="s">
@@ -16525,7 +16546,7 @@
     </row>
     <row r="199" spans="1:28" s="8" customFormat="1" outlineLevel="1">
       <c r="A199" s="106" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="26" t="s">
@@ -16563,7 +16584,7 @@
     <row r="200" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B200" s="197"/>
       <c r="C200" s="204" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="D200" s="228" t="s">
         <v>8</v>
@@ -16586,7 +16607,7 @@
     </row>
     <row r="201" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A201" s="252" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B201" s="12"/>
       <c r="C201" s="26" t="s">
@@ -16609,7 +16630,7 @@
     </row>
     <row r="202" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A202" s="252" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B202" s="12"/>
       <c r="C202" s="26" t="s">
@@ -16632,7 +16653,7 @@
     </row>
     <row r="203" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A203" s="252" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="26" t="s">
@@ -16675,7 +16696,7 @@
     <row r="205" spans="1:28" ht="21">
       <c r="B205" s="206"/>
       <c r="C205" s="207" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D205" s="205" t="s">
         <v>8</v>
@@ -16693,11 +16714,11 @@
     </row>
     <row r="206" spans="1:28" outlineLevel="1">
       <c r="A206" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="26" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>27</v>
@@ -16711,11 +16732,11 @@
     </row>
     <row r="207" spans="1:28" outlineLevel="1">
       <c r="A207" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="26" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>27</v>
@@ -16729,11 +16750,11 @@
     </row>
     <row r="208" spans="1:28" outlineLevel="1">
       <c r="A208" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="26" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>27</v>
@@ -16747,11 +16768,11 @@
     </row>
     <row r="209" spans="1:28" outlineLevel="1">
       <c r="A209" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="26" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>27</v>
@@ -16784,7 +16805,7 @@
     </row>
     <row r="211" spans="1:28" outlineLevel="1">
       <c r="A211" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="26" t="s">
@@ -16802,11 +16823,11 @@
     </row>
     <row r="212" spans="1:28" outlineLevel="1">
       <c r="A212" s="4" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="26" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>90</v>
@@ -16820,11 +16841,11 @@
     </row>
     <row r="213" spans="1:28" outlineLevel="1">
       <c r="A213" s="4" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="B213" s="7"/>
       <c r="C213" s="26" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>90</v>
@@ -16839,7 +16860,7 @@
     <row r="214" spans="1:28" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="B214" s="88"/>
       <c r="C214" s="124" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="D214" s="125" t="s">
         <v>8</v>
@@ -16876,11 +16897,11 @@
     </row>
     <row r="215" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A215" s="87" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B215" s="12"/>
       <c r="C215" s="26" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D215" s="86" t="s">
         <v>27</v>
@@ -16899,7 +16920,7 @@
     </row>
     <row r="216" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A216" s="87" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B216" s="12"/>
       <c r="C216" s="150" t="s">
@@ -16922,7 +16943,7 @@
     </row>
     <row r="217" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A217" s="87" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B217" s="12"/>
       <c r="C217" s="150" t="s">
@@ -16945,11 +16966,11 @@
     </row>
     <row r="218" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A218" s="11" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="B218" s="12"/>
       <c r="C218" s="26" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="D218" s="86" t="s">
         <v>27</v>
@@ -16968,7 +16989,7 @@
     </row>
     <row r="219" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A219" s="11" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="150" t="s">
@@ -16991,11 +17012,11 @@
     </row>
     <row r="220" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A220" s="11" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="B220" s="12"/>
       <c r="C220" s="150" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="D220" s="86" t="s">
         <v>22</v>
@@ -17014,11 +17035,11 @@
     </row>
     <row r="221" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A221" s="11" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="B221" s="12"/>
       <c r="C221" s="150" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="D221" s="86" t="s">
         <v>22</v>
@@ -17037,11 +17058,11 @@
     </row>
     <row r="222" spans="1:28" s="253" customFormat="1" outlineLevel="1">
       <c r="A222" s="11" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="150" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="D222" s="86" t="s">
         <v>22</v>
@@ -17060,11 +17081,11 @@
     </row>
     <row r="223" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A223" s="253" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B223" s="12"/>
       <c r="C223" s="26" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D223" s="86" t="s">
         <v>32</v>
@@ -17083,11 +17104,11 @@
     </row>
     <row r="224" spans="1:28" s="87" customFormat="1" outlineLevel="1">
       <c r="A224" s="253" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="26" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D224" s="86" t="s">
         <v>32</v>
@@ -17106,14 +17127,14 @@
     </row>
     <row r="225" spans="1:13" s="87" customFormat="1" outlineLevel="1">
       <c r="A225" s="253" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="26" t="s">
+        <v>830</v>
+      </c>
+      <c r="D225" s="86" t="s">
         <v>836</v>
-      </c>
-      <c r="D225" s="86" t="s">
-        <v>842</v>
       </c>
       <c r="E225" s="111" t="s">
         <v>99</v>
@@ -17253,7 +17274,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$I$2:$I$53</xm:f>
+            <xm:f>Lists!$I$2:$I$60</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
@@ -17273,7 +17294,7 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17313,10 +17334,10 @@
         <v>0</v>
       </c>
       <c r="K1" s="235" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="L1" s="235" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="M1" s="235" t="s">
         <v>114</v>
@@ -17325,97 +17346,97 @@
         <v>115</v>
       </c>
       <c r="O1" s="235" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="P1" s="235" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="Q1" s="235" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="R1" s="235" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="S1" s="235" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="T1" s="235" t="str">
         <f>Template!E23</f>
         <v>&lt;select climate zone 1&gt;</v>
       </c>
       <c r="U1" s="235" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="V1" s="235" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P2" s="258" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="Q2" s="258" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="R2" s="258" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="S2" s="258" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="T2" s="258" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="V2" s="258" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -17429,7 +17450,7 @@
         <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>168</v>
@@ -17450,41 +17471,41 @@
         <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M3" s="256" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="N3" s="256" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="O3" s="256" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="P3" s="258" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="T3" s="1" t="str">
         <f>IF(T$1=P$3,Q3,IF(T$1=P$4,R3,IF(T$1=P$5,S3,"")))</f>
         <v/>
       </c>
       <c r="U3" s="1" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="V3" s="258" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" ht="27" thickBot="1">
@@ -17519,38 +17540,38 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M4" s="256" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="N4" s="256" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="O4" s="256" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="P4" s="259" t="s">
+        <v>939</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>953</v>
       </c>
       <c r="T4" s="258" t="str">
         <f t="shared" ref="T4:T22" si="0">IF(T$1=P$3,Q4,IF(T$1=P$4,R4,IF(T$1=P$5,S4,"")))</f>
         <v/>
       </c>
       <c r="U4" s="258" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="27" thickBot="1">
@@ -17561,7 +17582,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>180</v>
@@ -17585,38 +17606,38 @@
         <v>56</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M5" s="256" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="N5" s="256" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="O5" s="256" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="P5" s="259" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>954</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="T5" s="258" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U5" s="258" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -17633,7 +17654,7 @@
         <v>187</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>188</v>
@@ -17642,38 +17663,38 @@
         <v>189</v>
       </c>
       <c r="I6" s="258" t="s">
-        <v>190</v>
+        <v>1058</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M6" s="256" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N6" s="256" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="O6" s="256" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="T6" s="258" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U6" s="258" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" ht="52.5" thickBot="1">
@@ -17684,43 +17705,43 @@
         <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H7" s="9" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="I7" s="258" t="s">
-        <v>193</v>
+        <v>1059</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M7" s="256" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="N7" s="256" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="O7" s="256" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="Q7" s="259" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="S7" s="258" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="T7" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17732,34 +17753,34 @@
         <v>129</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I8" s="257" t="s">
-        <v>925</v>
+      <c r="I8" s="258" t="s">
+        <v>192</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M8" s="256" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="N8" s="256" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="O8" s="256" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="S8" s="258" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="T8" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17768,31 +17789,31 @@
     </row>
     <row r="9" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="D9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="I9" s="257" t="s">
-        <v>1062</v>
+        <v>919</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M9" s="256" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="N9" s="256" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="O9" s="256" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="T9" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17801,31 +17822,31 @@
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="D10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="I10" s="257" t="s">
-        <v>926</v>
+        <v>1055</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M10" s="256" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N10" s="256" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="O10" s="256" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="R10" s="258" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="T10" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17834,31 +17855,31 @@
     </row>
     <row r="11" spans="1:22" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="D11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I11" s="258" t="s">
-        <v>197</v>
+      <c r="I11" s="257" t="s">
+        <v>1060</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M11" s="256" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="N11" s="256" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="O11" s="256" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="R11" s="258" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="T11" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17867,28 +17888,28 @@
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="D12" s="1" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I12" s="257" t="s">
-        <v>927</v>
+        <v>1061</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M12" s="256" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="N12" s="256" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="O12" s="256" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="R12" s="258" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="T12" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17897,25 +17918,25 @@
     </row>
     <row r="13" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="G13" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I13" s="257" t="s">
-        <v>928</v>
+        <v>206</v>
+      </c>
+      <c r="I13" s="258" t="s">
+        <v>196</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="M13" s="256" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="N13" s="256" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="O13" s="256" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="R13" s="258" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="T13" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17924,25 +17945,25 @@
     </row>
     <row r="14" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="G14" s="9" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="I14" s="257" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="M14" s="256" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="N14" s="256" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="O14" s="256" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="R14" s="258" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="T14" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17950,23 +17971,23 @@
       </c>
     </row>
     <row r="15" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I15" s="258" t="s">
-        <v>200</v>
+      <c r="I15" s="257" t="s">
+        <v>921</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="M15" s="256" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N15" s="256" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="O15" s="256" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="R15" s="258" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="T15" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17974,23 +17995,23 @@
       </c>
     </row>
     <row r="16" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I16" s="258" t="s">
-        <v>203</v>
+      <c r="I16" s="257" t="s">
+        <v>922</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="M16" s="256" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="N16" s="256" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="O16" s="256" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="R16" s="258" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="T16" s="258" t="str">
         <f t="shared" si="0"/>
@@ -17999,22 +18020,22 @@
     </row>
     <row r="17" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I17" s="258" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="M17" s="256" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="N17" s="256" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="O17" s="256" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="R17" s="258" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="T17" s="258" t="str">
         <f t="shared" si="0"/>
@@ -18022,23 +18043,23 @@
       </c>
     </row>
     <row r="18" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I18" s="257" t="s">
-        <v>930</v>
+      <c r="I18" s="258" t="s">
+        <v>202</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="M18" s="256" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="N18" s="256" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="O18" s="256" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="R18" s="258" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="T18" s="258" t="str">
         <f t="shared" si="0"/>
@@ -18046,23 +18067,23 @@
       </c>
     </row>
     <row r="19" spans="9:20" s="1" customFormat="1" ht="27" thickBot="1">
-      <c r="I19" s="257" t="s">
-        <v>1063</v>
+      <c r="I19" s="258" t="s">
+        <v>1069</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="M19" s="256" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="N19" s="256" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="O19" s="256" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="R19" s="258" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="T19" s="258" t="str">
         <f t="shared" si="0"/>
@@ -18070,23 +18091,23 @@
       </c>
     </row>
     <row r="20" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I20" s="257" t="s">
-        <v>931</v>
+      <c r="I20" s="258" t="s">
+        <v>1068</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>71</v>
       </c>
       <c r="M20" s="256" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="N20" s="256" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="O20" s="256" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="R20" s="258" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="T20" s="258" t="str">
         <f t="shared" si="0"/>
@@ -18095,22 +18116,22 @@
     </row>
     <row r="21" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I21" s="257" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>72</v>
       </c>
       <c r="M21" s="256" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="N21" s="256" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="O21" s="256" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="R21" s="258" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="T21" s="258" t="str">
         <f t="shared" si="0"/>
@@ -18119,22 +18140,22 @@
     </row>
     <row r="22" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I22" s="257" t="s">
-        <v>933</v>
+        <v>1056</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="M22" s="256" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="N22" s="256" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="O22" s="256" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="R22" s="258" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="T22" s="258" t="str">
         <f t="shared" si="0"/>
@@ -18143,649 +18164,670 @@
     </row>
     <row r="23" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I23" s="257" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>75</v>
       </c>
       <c r="M23" s="256" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N23" s="256" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="O23" s="256" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I24" s="257" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="J24" s="258" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="M24" s="256" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N24" s="256" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="O24" s="256" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I25" s="258" t="s">
-        <v>231</v>
+      <c r="I25" s="257" t="s">
+        <v>926</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>77</v>
       </c>
       <c r="M25" s="256" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="N25" s="256" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="O25" s="256" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I26" s="257" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M26" s="256" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N26" s="256" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="O26" s="256" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I27" s="258" t="s">
-        <v>209</v>
+      <c r="I27" s="257" t="s">
+        <v>928</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M27" s="256" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="N27" s="256" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="O27" s="256" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I28" s="258" t="s">
-        <v>232</v>
+      <c r="I28" s="257" t="s">
+        <v>1062</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>80</v>
       </c>
       <c r="M28" s="256" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="N28" s="256" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="O28" s="256" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I29" s="258" t="s">
-        <v>210</v>
+        <v>1063</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>81</v>
       </c>
       <c r="M29" s="256" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="N29" s="256" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="O29" s="256" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I30" s="257" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M30" s="256" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="N30" s="256" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="O30" s="256" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I31" s="258" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>83</v>
       </c>
       <c r="M31" s="256" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N31" s="256" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="O31" s="256" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I32" s="257" t="s">
-        <v>938</v>
+      <c r="I32" s="258" t="s">
+        <v>226</v>
       </c>
       <c r="J32" s="258" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="M32" s="256" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="N32" s="256" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="O32" s="256" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I33" s="258" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M33" s="256" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="N33" s="256" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="O33" s="256" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I34" s="258" t="s">
-        <v>213</v>
+      <c r="I34" s="257" t="s">
+        <v>930</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M34" s="256" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="N34" s="256" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="O34" s="256" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="35" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I35" s="258" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>76</v>
       </c>
       <c r="M35" s="256" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="N35" s="256" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="O35" s="256" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
-      <c r="I36" s="258" t="s">
-        <v>215</v>
+      <c r="I36" s="257" t="s">
+        <v>931</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>54</v>
       </c>
       <c r="M36" s="256" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N36" s="256" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="O36" s="256" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I37" s="258" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>84</v>
       </c>
       <c r="M37" s="256" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="N37" s="256" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="O37" s="256" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="38" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I38" s="258" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="M38" s="256" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N38" s="256" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="O38" s="256" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I39" s="258" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M39" s="256" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N39" s="256" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="O39" s="256" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="40" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I40" s="258" t="s">
-        <v>218</v>
+        <v>1064</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>87</v>
       </c>
       <c r="M40" s="256" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N40" s="256" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="O40" s="256" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="41" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I41" s="258" t="s">
-        <v>219</v>
+        <v>1065</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>88</v>
       </c>
       <c r="M41" s="256" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="N41" s="256" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="O41" s="256" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="42" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I42" s="258" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M42" s="256" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N42" s="256" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="O42" s="256" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I43" s="258" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M43" s="256" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="N43" s="256" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="O43" s="256" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I44" s="258" t="s">
-        <v>1064</v>
+        <v>214</v>
       </c>
       <c r="M44" s="256" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="N44" s="256" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="O44" s="256" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I45" s="258" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M45" s="256" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="N45" s="256" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="O45" s="256" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="46" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I46" s="258" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M46" s="256" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N46" s="256" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="O46" s="256" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I47" s="258" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="M47" s="256" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="N47" s="256" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="O47" s="256" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I48" s="258" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="M48" s="256" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="N48" s="256" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O48" s="256" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="49" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I49" s="258" t="s">
-        <v>224</v>
+        <v>1057</v>
       </c>
       <c r="M49" s="256" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="N49" s="256" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="O49" s="256" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="50" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I50" s="258" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M50" s="256" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="N50" s="256" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="O50" s="256" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="51" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I51" s="258" t="s">
-        <v>225</v>
+        <v>1070</v>
       </c>
       <c r="M51" s="256" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="N51" s="256" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="O51" s="256" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="52" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I52" s="258" t="s">
-        <v>226</v>
+        <v>1071</v>
       </c>
       <c r="M52" s="256" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="N52" s="256" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="O52" s="256" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I53" s="258" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M53" s="256" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="N53" s="256" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="O53" s="256" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="54" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I54" s="258" t="s">
+        <v>224</v>
+      </c>
+      <c r="M54" s="256" t="s">
+        <v>409</v>
+      </c>
+      <c r="N54" s="256" t="s">
+        <v>524</v>
+      </c>
+      <c r="O54" s="256" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="55" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="I55" s="258" t="s">
+        <v>220</v>
+      </c>
+      <c r="M55" s="256" t="s">
+        <v>870</v>
+      </c>
+      <c r="N55" s="256" t="s">
+        <v>525</v>
+      </c>
+      <c r="O55" s="256" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="56" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="I56" s="258" t="s">
+        <v>225</v>
+      </c>
+      <c r="M56" s="256" t="s">
+        <v>871</v>
+      </c>
+      <c r="N56" s="256" t="s">
+        <v>891</v>
+      </c>
+      <c r="O56" s="256" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="57" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I57" s="258" t="s">
+        <v>221</v>
+      </c>
+      <c r="M57" s="256" t="s">
+        <v>410</v>
+      </c>
+      <c r="N57" s="256" t="s">
+        <v>526</v>
+      </c>
+      <c r="O57" s="256" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="58" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I58" s="258" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M58" s="256" t="s">
+        <v>411</v>
+      </c>
+      <c r="N58" s="256" t="s">
+        <v>527</v>
+      </c>
+      <c r="O58" s="256" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="59" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I59" s="258" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M59" s="256" t="s">
+        <v>412</v>
+      </c>
+      <c r="N59" s="256" t="s">
+        <v>528</v>
+      </c>
+      <c r="O59" s="256" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="54" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M54" s="256" t="s">
-        <v>415</v>
-      </c>
-      <c r="N54" s="256" t="s">
-        <v>530</v>
-      </c>
-      <c r="O54" s="256" t="s">
+    <row r="60" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I60" s="258" t="s">
+        <v>222</v>
+      </c>
+      <c r="M60" s="256" t="s">
+        <v>413</v>
+      </c>
+      <c r="N60" s="256" t="s">
+        <v>529</v>
+      </c>
+      <c r="O60" s="256" t="s">
         <v>612</v>
-      </c>
-    </row>
-    <row r="55" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
-      <c r="M55" s="256" t="s">
-        <v>876</v>
-      </c>
-      <c r="N55" s="256" t="s">
-        <v>531</v>
-      </c>
-      <c r="O55" s="256" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="56" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
-      <c r="M56" s="256" t="s">
-        <v>877</v>
-      </c>
-      <c r="N56" s="256" t="s">
-        <v>897</v>
-      </c>
-      <c r="O56" s="256" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="57" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M57" s="256" t="s">
-        <v>416</v>
-      </c>
-      <c r="N57" s="256" t="s">
-        <v>532</v>
-      </c>
-      <c r="O57" s="256" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="58" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M58" s="256" t="s">
-        <v>417</v>
-      </c>
-      <c r="N58" s="256" t="s">
-        <v>533</v>
-      </c>
-      <c r="O58" s="256" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="59" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M59" s="256" t="s">
-        <v>418</v>
-      </c>
-      <c r="N59" s="256" t="s">
-        <v>534</v>
-      </c>
-      <c r="O59" s="256" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="60" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="M60" s="256" t="s">
-        <v>419</v>
-      </c>
-      <c r="N60" s="256" t="s">
-        <v>535</v>
-      </c>
-      <c r="O60" s="256" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="61" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M61" s="256" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="N61" s="256" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="O61" s="256" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M62" s="256" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="N62" s="256" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="O62" s="256" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="63" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M63" s="256" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="N63" s="256" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="O63" s="256" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M64" s="256" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N64" s="256" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="O64" s="256" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="M65" s="256" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="N65" s="256" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="O65" s="256" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="66" spans="9:20" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="M66" s="256" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="N66" s="256" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="O66" s="256" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="67" spans="9:20" ht="15.75" thickBot="1">
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="M67" s="256" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N67" s="256" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="O67" s="256" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -18797,604 +18839,611 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="M68" s="256" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N68" s="256" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="O68" s="256" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="9:20" ht="27" thickBot="1">
       <c r="I69" s="1"/>
       <c r="M69" s="256" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="N69" s="256" t="s">
+        <v>537</v>
+      </c>
+      <c r="O69" s="256" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="70" spans="9:20" ht="15.75" thickBot="1">
+      <c r="I70" s="1"/>
+      <c r="M70" s="256" t="s">
+        <v>876</v>
+      </c>
+      <c r="N70" s="256" t="s">
+        <v>538</v>
+      </c>
+      <c r="O70" s="256" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="71" spans="9:20" ht="15.75" thickBot="1">
+      <c r="I71" s="1"/>
+      <c r="M71" s="256" t="s">
+        <v>420</v>
+      </c>
+      <c r="N71" s="256" t="s">
+        <v>859</v>
+      </c>
+      <c r="O71" s="256" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="72" spans="9:20" ht="15.75" thickBot="1">
+      <c r="I72" s="1"/>
+      <c r="M72" s="256" t="s">
+        <v>421</v>
+      </c>
+      <c r="N72" s="256" t="s">
+        <v>539</v>
+      </c>
+      <c r="O72" s="256" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="73" spans="9:20" ht="27" thickBot="1">
+      <c r="I73" s="1"/>
+      <c r="M73" s="256" t="s">
+        <v>422</v>
+      </c>
+      <c r="N73" s="256" t="s">
+        <v>540</v>
+      </c>
+      <c r="O73" s="256" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="74" spans="9:20" ht="15.75" thickBot="1">
+      <c r="I74" s="1"/>
+      <c r="M74" s="256" t="s">
+        <v>423</v>
+      </c>
+      <c r="N74" s="256" t="s">
+        <v>541</v>
+      </c>
+      <c r="O74" s="256" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="75" spans="9:20" ht="15.75" thickBot="1">
+      <c r="I75" s="1"/>
+      <c r="M75" s="256" t="s">
+        <v>877</v>
+      </c>
+      <c r="N75" s="256" t="s">
+        <v>542</v>
+      </c>
+      <c r="O75" s="256" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="76" spans="9:20" ht="15.75" thickBot="1">
+      <c r="I76" s="1"/>
+      <c r="M76" s="256" t="s">
+        <v>425</v>
+      </c>
+      <c r="N76" s="256" t="s">
         <v>543</v>
       </c>
-      <c r="O69" s="256" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="70" spans="9:20" ht="15.75" thickBot="1">
-      <c r="M70" s="256" t="s">
-        <v>882</v>
-      </c>
-      <c r="N70" s="256" t="s">
-        <v>544</v>
-      </c>
-      <c r="O70" s="256" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="71" spans="9:20" ht="15.75" thickBot="1">
-      <c r="M71" s="256" t="s">
-        <v>426</v>
-      </c>
-      <c r="N71" s="256" t="s">
-        <v>865</v>
-      </c>
-      <c r="O71" s="256" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="72" spans="9:20" ht="15.75" thickBot="1">
-      <c r="M72" s="256" t="s">
-        <v>427</v>
-      </c>
-      <c r="N72" s="256" t="s">
-        <v>545</v>
-      </c>
-      <c r="O72" s="256" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="73" spans="9:20" ht="27" thickBot="1">
-      <c r="M73" s="256" t="s">
-        <v>428</v>
-      </c>
-      <c r="N73" s="256" t="s">
-        <v>546</v>
-      </c>
-      <c r="O73" s="256" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="74" spans="9:20" ht="15.75" thickBot="1">
-      <c r="M74" s="256" t="s">
-        <v>429</v>
-      </c>
-      <c r="N74" s="256" t="s">
-        <v>547</v>
-      </c>
-      <c r="O74" s="256" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="75" spans="9:20" ht="15.75" thickBot="1">
-      <c r="M75" s="256" t="s">
-        <v>883</v>
-      </c>
-      <c r="N75" s="256" t="s">
-        <v>548</v>
-      </c>
-      <c r="O75" s="256" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="76" spans="9:20" ht="15.75" thickBot="1">
-      <c r="M76" s="256" t="s">
-        <v>431</v>
-      </c>
-      <c r="N76" s="256" t="s">
-        <v>549</v>
-      </c>
       <c r="O76" s="256" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" spans="9:20" ht="15.75" thickBot="1">
       <c r="M77" s="256" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N77" s="256" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="O77" s="256" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="78" spans="9:20" ht="15.75" thickBot="1">
       <c r="M78" s="256" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N78" s="256" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="O78" s="256" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="79" spans="9:20" ht="27" thickBot="1">
       <c r="M79" s="256" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="N79" s="256" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="O79" s="256" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="9:20" ht="15.75" thickBot="1">
       <c r="M80" s="256" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="N80" s="256" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="O80" s="256" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="81" spans="13:15" ht="15.75" thickBot="1">
       <c r="M81" s="256" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="N81" s="256" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="O81" s="256" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="82" spans="13:15" ht="15.75" thickBot="1">
       <c r="M82" s="256" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N82" s="256" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="O82" s="256" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="83" spans="13:15" ht="15.75" thickBot="1">
       <c r="M83" s="256" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N83" s="256" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="O83" s="256" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="84" spans="13:15" ht="15.75" thickBot="1">
       <c r="M84" s="256" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="N84" s="256" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="O84" s="256" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="85" spans="13:15" ht="15.75" thickBot="1">
       <c r="M85" s="256" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N85" s="256" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="O85" s="256" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86" spans="13:15" ht="15.75" thickBot="1">
       <c r="M86" s="256" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="N86" s="256" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="O86" s="256" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="87" spans="13:15" ht="15.75" thickBot="1">
       <c r="M87" s="256" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N87" s="256" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="O87" s="256" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="88" spans="13:15" ht="15.75" thickBot="1">
       <c r="M88" s="256" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="N88" s="256" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="O88" s="256" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="89" spans="13:15" ht="15.75" thickBot="1">
       <c r="M89" s="256" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="N89" s="256" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="O89" s="256" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="90" spans="13:15" ht="15.75" thickBot="1">
       <c r="M90" s="256" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N90" s="256" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="O90" s="256" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="91" spans="13:15" ht="15.75" thickBot="1">
       <c r="M91" s="256" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="N91" s="256" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="O91" s="256" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="92" spans="13:15" ht="15.75" thickBot="1">
       <c r="M92" s="256" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="N92" s="256" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="O92" s="256" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93" spans="13:15" ht="15.75" thickBot="1">
       <c r="M93" s="256" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="N93" s="256" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="O93" s="256" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="94" spans="13:15" ht="15.75" thickBot="1">
       <c r="M94" s="256" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N94" s="256" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="O94" s="256" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" spans="13:15" ht="15.75" thickBot="1">
       <c r="M95" s="256" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N95" s="256" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="O95" s="256" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="96" spans="13:15" ht="15.75" thickBot="1">
       <c r="M96" s="256" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="N96" s="256" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="O96" s="256" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="97" spans="13:15" ht="15.75" thickBot="1">
       <c r="M97" s="256" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="N97" s="256" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="O97" s="256" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" spans="13:15" ht="15.75" thickBot="1">
       <c r="M98" s="256" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="N98" s="256" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="O98" s="256" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="99" spans="13:15" ht="15.75" thickBot="1">
       <c r="M99" s="256" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="N99" s="256" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="O99" s="256" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="13:15" ht="15.75" thickBot="1">
       <c r="M100" s="256" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N100" s="256" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="O100" s="256" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="13:15" ht="15.75" thickBot="1">
       <c r="M101" s="256" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="N101" s="256" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="O101" s="256" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="102" spans="13:15" ht="15.75" thickBot="1">
       <c r="M102" s="256" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="N102" s="256" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="O102" s="256" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="103" spans="13:15" ht="27" thickBot="1">
       <c r="M103" s="256" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="N103" s="256" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="O103" s="256" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="104" spans="13:15" ht="15.75" thickBot="1">
       <c r="M104" s="256" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="O104" s="256" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105" spans="13:15" ht="15.75" thickBot="1">
       <c r="M105" s="256" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="O105" s="256" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="106" spans="13:15" ht="15.75" thickBot="1">
       <c r="M106" s="256" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="O106" s="256" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="107" spans="13:15" ht="15.75" thickBot="1">
       <c r="M107" s="256" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="O107" s="256" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="13:15" ht="27" thickBot="1">
       <c r="M108" s="256" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="O108" s="256" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109" spans="13:15" ht="15.75" thickBot="1">
       <c r="M109" s="256" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="110" spans="13:15" ht="15.75" thickBot="1">
       <c r="M110" s="256" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="111" spans="13:15" ht="15.75" thickBot="1">
       <c r="M111" s="256" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="112" spans="13:15" ht="15.75" thickBot="1">
       <c r="M112" s="256" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="113" spans="13:13" ht="15.75" thickBot="1">
       <c r="M113" s="256" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="114" spans="13:13" ht="27" thickBot="1">
       <c r="M114" s="256" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="13:13" ht="15.75" thickBot="1">
       <c r="M115" s="256" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="13:13" ht="15.75" thickBot="1">
       <c r="M116" s="256" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="13:13" ht="15.75" thickBot="1">
       <c r="M117" s="256" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="13:13" ht="15.75" thickBot="1">
       <c r="M118" s="256" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="13:13" ht="15.75" thickBot="1">
       <c r="M119" s="256" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120" spans="13:13" ht="15.75" thickBot="1">
       <c r="M120" s="256" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="13:13" ht="15.75" thickBot="1">
       <c r="M121" s="256" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="122" spans="13:13" ht="15.75" thickBot="1">
       <c r="M122" s="256" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="13:13" ht="15.75" thickBot="1">
       <c r="M123" s="256" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="124" spans="13:13" ht="15.75" thickBot="1">
       <c r="M124" s="256" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="125" spans="13:13" ht="15.75" thickBot="1">
       <c r="M125" s="256" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="126" spans="13:13" ht="15.75" thickBot="1">
       <c r="M126" s="256" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="127" spans="13:13" ht="15.75" thickBot="1">
       <c r="M127" s="256" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="13:13" ht="15.75" thickBot="1">
       <c r="M128" s="256" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" spans="13:13" ht="15.75" thickBot="1">
       <c r="M129" s="256" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="130" spans="13:13" ht="15.75" thickBot="1">
       <c r="M130" s="256" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="131" spans="13:13" ht="15.75" thickBot="1">
       <c r="M131" s="256" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="132" spans="13:13" ht="15.75" thickBot="1">
       <c r="M132" s="256" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="13:13" ht="15.75" thickBot="1">
       <c r="M133" s="256" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="13:13" ht="15.75" thickBot="1">
       <c r="M134" s="256" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="13:13" ht="15.75" thickBot="1">
       <c r="M135" s="256" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="13:13" ht="15.75" thickBot="1">
       <c r="M136" s="256" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="13:13" ht="15.75" thickBot="1">
       <c r="M137" s="256" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="138" spans="13:13" ht="15.75" thickBot="1">
       <c r="M138" s="256" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="13:13" ht="15.75" thickBot="1">
       <c r="M139" s="256" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="13:13" ht="15.75" thickBot="1">
       <c r="M140" s="256" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="141" spans="13:13" ht="27" thickBot="1">
       <c r="M141" s="256" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1005" windowWidth="24240" windowHeight="13680" tabRatio="463"/>
+    <workbookView xWindow="120" yWindow="1005" windowWidth="24240" windowHeight="13680" tabRatio="463" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="127" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="1080">
   <si>
     <t>Country</t>
   </si>
@@ -3538,6 +3538,30 @@
   </si>
   <si>
     <t>Strawberry processing grade</t>
+  </si>
+  <si>
+    <t>Castor bean</t>
+  </si>
+  <si>
+    <t>Chick pea</t>
+  </si>
+  <si>
+    <t>Coriander</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Pearl millet</t>
+  </si>
+  <si>
+    <t>Pomegranate</t>
+  </si>
+  <si>
+    <t>Sesame seed</t>
+  </si>
+  <si>
+    <t>Turmeric</t>
   </si>
 </sst>
 </file>
@@ -6168,6 +6192,18 @@
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="51" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6182,18 +6218,6 @@
     </xf>
     <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="51" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="13" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8345,7 +8369,7 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -8407,25 +8431,25 @@
     </row>
     <row r="5" spans="1:9" s="160" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="159"/>
-      <c r="B5" s="261"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
-      <c r="G5" s="261"/>
+      <c r="B5" s="265"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
       <c r="H5" s="156"/>
       <c r="I5" s="156"/>
     </row>
     <row r="6" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A6" s="154"/>
-      <c r="B6" s="262" t="s">
+      <c r="B6" s="266" t="s">
         <v>1036</v>
       </c>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="267"/>
       <c r="H6" s="156"/>
       <c r="I6" s="156"/>
     </row>
@@ -8442,14 +8466,14 @@
     </row>
     <row r="8" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A8" s="154"/>
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="268" t="s">
         <v>702</v>
       </c>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="268"/>
       <c r="H8" s="161"/>
       <c r="I8" s="156"/>
     </row>
@@ -8466,14 +8490,14 @@
     </row>
     <row r="10" spans="1:9" s="157" customFormat="1" ht="12.95" customHeight="1">
       <c r="A10" s="154"/>
-      <c r="B10" s="265" t="s">
+      <c r="B10" s="269" t="s">
         <v>766</v>
       </c>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="265"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="269"/>
       <c r="H10" s="156"/>
       <c r="I10" s="156"/>
     </row>
@@ -8481,10 +8505,10 @@
       <c r="A11" s="154"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
-      <c r="D11" s="265"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="265"/>
-      <c r="G11" s="265"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="269"/>
       <c r="H11" s="156"/>
       <c r="I11" s="156"/>
     </row>
@@ -8557,23 +8581,23 @@
     </row>
     <row r="17" spans="1:9" s="157" customFormat="1" ht="15.75">
       <c r="A17" s="154"/>
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="262" t="s">
         <v>705</v>
       </c>
-      <c r="C17" s="267"/>
-      <c r="D17" s="267"/>
-      <c r="E17" s="267"/>
-      <c r="F17" s="267"/>
-      <c r="G17" s="267"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
       <c r="H17" s="161"/>
       <c r="I17" s="156"/>
     </row>
     <row r="18" spans="1:9" s="160" customFormat="1">
       <c r="A18" s="159"/>
-      <c r="B18" s="268" t="s">
+      <c r="B18" s="263" t="s">
         <v>706</v>
       </c>
-      <c r="C18" s="268"/>
+      <c r="C18" s="263"/>
       <c r="D18" s="180" t="s">
         <v>707</v>
       </c>
@@ -8591,10 +8615,10 @@
     </row>
     <row r="19" spans="1:9" s="160" customFormat="1">
       <c r="A19" s="159"/>
-      <c r="B19" s="269" t="s">
+      <c r="B19" s="264" t="s">
         <v>711</v>
       </c>
-      <c r="C19" s="269"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="166" t="s">
         <v>712</v>
       </c>
@@ -8633,10 +8657,10 @@
     </row>
     <row r="21" spans="1:9" s="160" customFormat="1">
       <c r="A21" s="159"/>
-      <c r="B21" s="266" t="s">
+      <c r="B21" s="261" t="s">
         <v>714</v>
       </c>
-      <c r="C21" s="266"/>
+      <c r="C21" s="261"/>
       <c r="D21" s="167" t="s">
         <v>715</v>
       </c>
@@ -8654,10 +8678,10 @@
     </row>
     <row r="22" spans="1:9" s="160" customFormat="1" ht="25.5">
       <c r="A22" s="159"/>
-      <c r="B22" s="266" t="s">
+      <c r="B22" s="261" t="s">
         <v>718</v>
       </c>
-      <c r="C22" s="266"/>
+      <c r="C22" s="261"/>
       <c r="D22" s="167" t="s">
         <v>719</v>
       </c>
@@ -8771,6 +8795,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="B21:C21"/>
@@ -8779,12 +8809,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <phoneticPr fontId="83" type="noConversion"/>
   <hyperlinks>
@@ -8807,9 +8831,9 @@
   <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:E4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -12857,10 +12881,10 @@
   </sheetPr>
   <dimension ref="A1:AB225"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -17274,7 +17298,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$I$2:$I$60</xm:f>
+            <xm:f>Lists!$I$2:$I$68</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
@@ -17292,9 +17316,9 @@
   <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17396,7 +17420,7 @@
       <c r="H2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="258" t="s">
         <v>654</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -17996,7 +18020,7 @@
     </row>
     <row r="16" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I16" s="257" t="s">
-        <v>922</v>
+        <v>1072</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
@@ -18019,8 +18043,8 @@
       </c>
     </row>
     <row r="17" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I17" s="258" t="s">
-        <v>199</v>
+      <c r="I17" s="257" t="s">
+        <v>1073</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>69</v>
@@ -18043,8 +18067,8 @@
       </c>
     </row>
     <row r="18" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I18" s="258" t="s">
-        <v>202</v>
+      <c r="I18" s="257" t="s">
+        <v>922</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>70</v>
@@ -18068,7 +18092,7 @@
     </row>
     <row r="19" spans="9:20" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I19" s="258" t="s">
-        <v>1069</v>
+        <v>199</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>73</v>
@@ -18092,7 +18116,7 @@
     </row>
     <row r="20" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I20" s="258" t="s">
-        <v>1068</v>
+        <v>202</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>71</v>
@@ -18115,8 +18139,8 @@
       </c>
     </row>
     <row r="21" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I21" s="257" t="s">
-        <v>923</v>
+      <c r="I21" s="258" t="s">
+        <v>1069</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>72</v>
@@ -18139,8 +18163,8 @@
       </c>
     </row>
     <row r="22" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I22" s="257" t="s">
-        <v>1056</v>
+      <c r="I22" s="258" t="s">
+        <v>1074</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>74</v>
@@ -18163,8 +18187,8 @@
       </c>
     </row>
     <row r="23" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I23" s="257" t="s">
-        <v>924</v>
+      <c r="I23" s="258" t="s">
+        <v>1068</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>75</v>
@@ -18181,7 +18205,7 @@
     </row>
     <row r="24" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I24" s="257" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J24" s="258" t="s">
         <v>1054</v>
@@ -18198,7 +18222,7 @@
     </row>
     <row r="25" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I25" s="257" t="s">
-        <v>926</v>
+        <v>1056</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>77</v>
@@ -18215,7 +18239,7 @@
     </row>
     <row r="26" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I26" s="257" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>78</v>
@@ -18232,7 +18256,7 @@
     </row>
     <row r="27" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I27" s="257" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>79</v>
@@ -18249,7 +18273,7 @@
     </row>
     <row r="28" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I28" s="257" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>80</v>
@@ -18265,8 +18289,8 @@
       </c>
     </row>
     <row r="29" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I29" s="258" t="s">
-        <v>1063</v>
+      <c r="I29" s="257" t="s">
+        <v>926</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>81</v>
@@ -18283,7 +18307,7 @@
     </row>
     <row r="30" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I30" s="257" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>82</v>
@@ -18299,8 +18323,8 @@
       </c>
     </row>
     <row r="31" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I31" s="258" t="s">
-        <v>207</v>
+      <c r="I31" s="257" t="s">
+        <v>928</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>83</v>
@@ -18316,8 +18340,8 @@
       </c>
     </row>
     <row r="32" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I32" s="258" t="s">
-        <v>226</v>
+      <c r="I32" s="257" t="s">
+        <v>1062</v>
       </c>
       <c r="J32" s="258" t="s">
         <v>1053</v>
@@ -18334,7 +18358,7 @@
     </row>
     <row r="33" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I33" s="258" t="s">
-        <v>208</v>
+        <v>1063</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>89</v>
@@ -18351,7 +18375,7 @@
     </row>
     <row r="34" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I34" s="257" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>66</v>
@@ -18368,7 +18392,7 @@
     </row>
     <row r="35" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I35" s="258" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>76</v>
@@ -18384,8 +18408,8 @@
       </c>
     </row>
     <row r="36" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
-      <c r="I36" s="257" t="s">
-        <v>931</v>
+      <c r="I36" s="258" t="s">
+        <v>226</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>54</v>
@@ -18402,7 +18426,7 @@
     </row>
     <row r="37" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I37" s="258" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>84</v>
@@ -18418,8 +18442,8 @@
       </c>
     </row>
     <row r="38" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I38" s="258" t="s">
-        <v>211</v>
+      <c r="I38" s="257" t="s">
+        <v>930</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>85</v>
@@ -18436,7 +18460,7 @@
     </row>
     <row r="39" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I39" s="258" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>86</v>
@@ -18452,8 +18476,8 @@
       </c>
     </row>
     <row r="40" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="I40" s="258" t="s">
-        <v>1064</v>
+      <c r="I40" s="257" t="s">
+        <v>931</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>87</v>
@@ -18470,7 +18494,7 @@
     </row>
     <row r="41" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I41" s="258" t="s">
-        <v>1065</v>
+        <v>210</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>88</v>
@@ -18487,7 +18511,7 @@
     </row>
     <row r="42" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I42" s="258" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="M42" s="256" t="s">
         <v>398</v>
@@ -18501,7 +18525,7 @@
     </row>
     <row r="43" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I43" s="258" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M43" s="256" t="s">
         <v>399</v>
@@ -18515,7 +18539,7 @@
     </row>
     <row r="44" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I44" s="258" t="s">
-        <v>214</v>
+        <v>1064</v>
       </c>
       <c r="M44" s="256" t="s">
         <v>400</v>
@@ -18529,7 +18553,7 @@
     </row>
     <row r="45" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I45" s="258" t="s">
-        <v>215</v>
+        <v>1065</v>
       </c>
       <c r="M45" s="256" t="s">
         <v>401</v>
@@ -18543,7 +18567,7 @@
     </row>
     <row r="46" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I46" s="258" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="M46" s="256" t="s">
         <v>402</v>
@@ -18557,7 +18581,7 @@
     </row>
     <row r="47" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I47" s="258" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M47" s="256" t="s">
         <v>403</v>
@@ -18571,7 +18595,7 @@
     </row>
     <row r="48" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I48" s="258" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M48" s="256" t="s">
         <v>404</v>
@@ -18585,7 +18609,7 @@
     </row>
     <row r="49" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I49" s="258" t="s">
-        <v>1057</v>
+        <v>215</v>
       </c>
       <c r="M49" s="256" t="s">
         <v>405</v>
@@ -18599,7 +18623,7 @@
     </row>
     <row r="50" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I50" s="258" t="s">
-        <v>219</v>
+        <v>1076</v>
       </c>
       <c r="M50" s="256" t="s">
         <v>397</v>
@@ -18613,7 +18637,7 @@
     </row>
     <row r="51" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I51" s="258" t="s">
-        <v>1070</v>
+        <v>216</v>
       </c>
       <c r="M51" s="256" t="s">
         <v>406</v>
@@ -18627,7 +18651,7 @@
     </row>
     <row r="52" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I52" s="258" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="M52" s="256" t="s">
         <v>407</v>
@@ -18641,7 +18665,7 @@
     </row>
     <row r="53" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I53" s="258" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M53" s="256" t="s">
         <v>408</v>
@@ -18655,7 +18679,7 @@
     </row>
     <row r="54" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I54" s="258" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M54" s="256" t="s">
         <v>409</v>
@@ -18669,7 +18693,7 @@
     </row>
     <row r="55" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I55" s="258" t="s">
-        <v>220</v>
+        <v>1057</v>
       </c>
       <c r="M55" s="256" t="s">
         <v>870</v>
@@ -18683,7 +18707,7 @@
     </row>
     <row r="56" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="I56" s="258" t="s">
-        <v>225</v>
+        <v>1078</v>
       </c>
       <c r="M56" s="256" t="s">
         <v>871</v>
@@ -18697,7 +18721,7 @@
     </row>
     <row r="57" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I57" s="258" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M57" s="256" t="s">
         <v>410</v>
@@ -18711,7 +18735,7 @@
     </row>
     <row r="58" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I58" s="258" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="M58" s="256" t="s">
         <v>411</v>
@@ -18725,7 +18749,7 @@
     </row>
     <row r="59" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I59" s="258" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="M59" s="256" t="s">
         <v>412</v>
@@ -18739,7 +18763,7 @@
     </row>
     <row r="60" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="I60" s="258" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M60" s="256" t="s">
         <v>413</v>
@@ -18752,6 +18776,9 @@
       </c>
     </row>
     <row r="61" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I61" s="258" t="s">
+        <v>224</v>
+      </c>
       <c r="M61" s="256" t="s">
         <v>414</v>
       </c>
@@ -18763,6 +18790,9 @@
       </c>
     </row>
     <row r="62" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I62" s="258" t="s">
+        <v>220</v>
+      </c>
       <c r="M62" s="256" t="s">
         <v>415</v>
       </c>
@@ -18774,6 +18804,9 @@
       </c>
     </row>
     <row r="63" spans="9:15" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="I63" s="258" t="s">
+        <v>225</v>
+      </c>
       <c r="M63" s="256" t="s">
         <v>872</v>
       </c>
@@ -18785,6 +18818,9 @@
       </c>
     </row>
     <row r="64" spans="9:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I64" s="258" t="s">
+        <v>221</v>
+      </c>
       <c r="M64" s="256" t="s">
         <v>416</v>
       </c>
@@ -18796,6 +18832,9 @@
       </c>
     </row>
     <row r="65" spans="9:20" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="I65" s="258" t="s">
+        <v>1066</v>
+      </c>
       <c r="M65" s="256" t="s">
         <v>873</v>
       </c>
@@ -18807,6 +18846,9 @@
       </c>
     </row>
     <row r="66" spans="9:20" s="1" customFormat="1" ht="27" thickBot="1">
+      <c r="I66" s="258" t="s">
+        <v>1067</v>
+      </c>
       <c r="M66" s="256" t="s">
         <v>417</v>
       </c>
@@ -18818,7 +18860,9 @@
       </c>
     </row>
     <row r="67" spans="9:20" ht="15.75" thickBot="1">
-      <c r="I67" s="1"/>
+      <c r="I67" s="258" t="s">
+        <v>1079</v>
+      </c>
       <c r="J67" s="1"/>
       <c r="M67" s="256" t="s">
         <v>418</v>
@@ -18836,7 +18880,9 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="9:20" ht="15.75" thickBot="1">
-      <c r="I68" s="1"/>
+      <c r="I68" s="258" t="s">
+        <v>222</v>
+      </c>
       <c r="J68" s="1"/>
       <c r="M68" s="256" t="s">
         <v>419</v>

--- a/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
+++ b/src/main/dart/web/LCI-Database_Data-collection_Crop_v2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="971">
   <si>
     <t>Country</t>
   </si>
@@ -5440,26 +5440,26 @@
     <xf numFmtId="0" fontId="72" fillId="9" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="9" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="72" fillId="9" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="79" fillId="23" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="6" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="9" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
@@ -7585,27 +7585,27 @@
     </row>
     <row r="2" spans="1:9" s="112" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="111"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="210" t="s">
         <v>943</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
       <c r="H2" s="109"/>
       <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:9" s="110" customFormat="1" ht="12.95" customHeight="1">
       <c r="A3" s="107"/>
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="211" t="s">
         <v>903</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
       <c r="H3" s="109"/>
       <c r="I3" s="109"/>
     </row>
@@ -7622,14 +7622,14 @@
     </row>
     <row r="5" spans="1:9" s="110" customFormat="1" ht="15.75">
       <c r="A5" s="107"/>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="213" t="s">
         <v>620</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
       <c r="H5" s="113"/>
       <c r="I5" s="109"/>
     </row>
@@ -7646,14 +7646,14 @@
     </row>
     <row r="7" spans="1:9" s="110" customFormat="1" ht="12.95" customHeight="1">
       <c r="A7" s="107"/>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="214" t="s">
         <v>669</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
       <c r="H7" s="109"/>
       <c r="I7" s="109"/>
     </row>
@@ -7661,10 +7661,10 @@
       <c r="A8" s="107"/>
       <c r="B8" s="125"/>
       <c r="C8" s="125"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
       <c r="H8" s="109"/>
       <c r="I8" s="109"/>
     </row>
@@ -7737,23 +7737,23 @@
     </row>
     <row r="14" spans="1:9" s="110" customFormat="1" ht="15.75">
       <c r="A14" s="107"/>
-      <c r="B14" s="211" t="s">
+      <c r="B14" s="213" t="s">
         <v>623</v>
       </c>
-      <c r="C14" s="211"/>
-      <c r="D14" s="211"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="211"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
       <c r="H14" s="113"/>
       <c r="I14" s="109"/>
     </row>
     <row r="15" spans="1:9" s="112" customFormat="1">
       <c r="A15" s="111"/>
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="216" t="s">
         <v>624</v>
       </c>
-      <c r="C15" s="212"/>
+      <c r="C15" s="216"/>
       <c r="D15" s="191" t="s">
         <v>625</v>
       </c>
@@ -7792,10 +7792,10 @@
     </row>
     <row r="17" spans="1:9" s="112" customFormat="1" ht="25.5">
       <c r="A17" s="111"/>
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="215" t="s">
         <v>629</v>
       </c>
-      <c r="C17" s="210"/>
+      <c r="C17" s="215"/>
       <c r="D17" s="119" t="s">
         <v>630</v>
       </c>
@@ -7909,18 +7909,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D12:G12"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D12:G12"/>
   </mergeCells>
   <phoneticPr fontId="76" type="noConversion"/>
   <hyperlinks>
@@ -7981,7 +7981,7 @@
       <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" ht="61.5" customHeight="1">
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="210" t="s">
         <v>943</v>
       </c>
       <c r="C3" s="217"/>
@@ -11445,7 +11445,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C16" sqref="C16"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -11491,14 +11491,14 @@
       <c r="G2" s="221"/>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" ht="61.5" customHeight="1">
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="210" t="s">
         <v>943</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" ht="15.95" customHeight="1">
       <c r="B4" s="176"/>
@@ -12174,8 +12174,8 @@
       <c r="D45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="80" t="s">
-        <v>91</v>
+      <c r="E45" s="80">
+        <v>0</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="37"/>
@@ -12380,8 +12380,8 @@
       <c r="D57" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="80" t="s">
-        <v>91</v>
+      <c r="E57" s="80">
+        <v>0</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="39"/>
@@ -12535,8 +12535,8 @@
       <c r="D66" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E66" s="80" t="s">
-        <v>91</v>
+      <c r="E66" s="80">
+        <v>0</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="37"/>
@@ -12951,8 +12951,8 @@
       <c r="D90" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="80" t="s">
-        <v>91</v>
+      <c r="E90" s="80">
+        <v>0</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="31"/>
@@ -13036,8 +13036,8 @@
       <c r="D95" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E95" s="80" t="s">
-        <v>91</v>
+      <c r="E95" s="80">
+        <v>0</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="31"/>
@@ -13270,8 +13270,8 @@
       <c r="D109" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E109" s="82" t="s">
-        <v>91</v>
+      <c r="E109" s="82">
+        <v>0</v>
       </c>
       <c r="F109" s="40"/>
       <c r="G109" s="3"/>
